--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\Source Code\sb\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91386F8E-8E17-4D5D-B75A-A5067D139D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94371CA7-5E1D-4AEB-8F9A-2D1986D9C53D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="914" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="914" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1237,6 +1237,20 @@
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="源ノ角ゴシック Normal"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1961,7 +1975,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,10 +2249,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,19 +2282,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2307,7 +2321,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,7 +2330,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2325,7 +2339,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2376,10 +2390,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2394,10 +2408,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2412,10 +2426,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,10 +2459,10 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,10 +2471,10 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2535,10 +2549,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,10 +2762,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2760,10 +2774,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2781,10 +2795,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,10 +2825,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,8 +2870,20 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -2919,6 +2945,12 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2948,6 +2980,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -2982,9 +3020,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3006,9 +3041,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3017,6 +3049,21 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3054,8 +3101,23 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3072,18 +3134,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3098,24 +3148,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3168,7 +3200,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3176,6 +3223,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -3191,24 +3244,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3228,6 +3263,15 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3235,6 +3279,39 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -46802,7 +46879,7 @@
   <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="90" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="13.5" customHeight="1"/>
@@ -47019,8 +47096,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AP77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A49" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45:U45"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24:AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -47116,9 +47193,9 @@
       <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="419"/>
-      <c r="C3" s="416"/>
+      <c r="A3" s="426"/>
+      <c r="B3" s="426"/>
+      <c r="C3" s="423"/>
       <c r="D3" s="56"/>
       <c r="E3" s="57"/>
       <c r="F3" s="56"/>
@@ -47157,9 +47234,9 @@
       <c r="AM3" s="60"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="A4" s="420"/>
-      <c r="B4" s="420"/>
-      <c r="C4" s="417"/>
+      <c r="A4" s="427"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="424"/>
       <c r="D4" s="71"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71"/>
@@ -47198,9 +47275,9 @@
       <c r="AM4" s="73"/>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="420"/>
-      <c r="B5" s="420"/>
-      <c r="C5" s="417"/>
+      <c r="A5" s="427"/>
+      <c r="B5" s="427"/>
+      <c r="C5" s="424"/>
       <c r="D5" s="78"/>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -47239,9 +47316,9 @@
       <c r="AM5" s="73"/>
     </row>
     <row r="6" spans="1:42" ht="15" customHeight="1">
-      <c r="A6" s="420"/>
-      <c r="B6" s="420"/>
-      <c r="C6" s="417"/>
+      <c r="A6" s="427"/>
+      <c r="B6" s="427"/>
+      <c r="C6" s="424"/>
       <c r="D6" s="69"/>
       <c r="E6" s="70"/>
       <c r="F6" s="69"/>
@@ -47280,9 +47357,9 @@
       <c r="AM6" s="73"/>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1">
-      <c r="A7" s="420"/>
-      <c r="B7" s="420"/>
-      <c r="C7" s="417"/>
+      <c r="A7" s="427"/>
+      <c r="B7" s="427"/>
+      <c r="C7" s="424"/>
       <c r="D7" s="71"/>
       <c r="E7" s="72"/>
       <c r="F7" s="71"/>
@@ -47321,9 +47398,9 @@
       <c r="AM7" s="73"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="421"/>
-      <c r="B8" s="421"/>
-      <c r="C8" s="418"/>
+      <c r="A8" s="428"/>
+      <c r="B8" s="428"/>
+      <c r="C8" s="425"/>
       <c r="D8" s="58"/>
       <c r="E8" s="59"/>
       <c r="F8" s="58"/>
@@ -47364,10 +47441,10 @@
     <row r="9" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="136"/>
       <c r="B9" s="136"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="358"/>
+      <c r="D9" s="358"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="358"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -47403,8 +47480,8 @@
       <c r="AM9" s="27"/>
     </row>
     <row r="10" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="315"/>
-      <c r="B10" s="315"/>
+      <c r="A10" s="319"/>
+      <c r="B10" s="319"/>
       <c r="C10" s="111"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
@@ -47446,17 +47523,17 @@
     <row r="11" spans="1:42" ht="15" customHeight="1">
       <c r="A11" s="132"/>
       <c r="B11" s="133"/>
-      <c r="C11" s="352"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="366"/>
-      <c r="I11" s="367"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="381"/>
+      <c r="F11" s="381"/>
+      <c r="G11" s="381"/>
+      <c r="H11" s="382"/>
+      <c r="I11" s="383"/>
       <c r="J11" s="148"/>
       <c r="K11" s="149"/>
-      <c r="L11" s="366"/>
-      <c r="M11" s="367"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="383"/>
       <c r="N11" s="148"/>
       <c r="O11" s="149"/>
       <c r="P11" s="148"/>
@@ -47490,38 +47567,38 @@
     <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="134"/>
       <c r="B12" s="135"/>
-      <c r="C12" s="353"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="375"/>
-      <c r="J12" s="369"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="384"/>
+      <c r="E12" s="384"/>
+      <c r="F12" s="384"/>
+      <c r="G12" s="384"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="387"/>
+      <c r="J12" s="385"/>
       <c r="K12" s="159"/>
-      <c r="L12" s="374"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="369"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="385"/>
       <c r="O12" s="159"/>
-      <c r="P12" s="369"/>
+      <c r="P12" s="385"/>
       <c r="Q12" s="159"/>
-      <c r="R12" s="369"/>
+      <c r="R12" s="385"/>
       <c r="S12" s="159"/>
-      <c r="T12" s="369"/>
+      <c r="T12" s="385"/>
       <c r="U12" s="159"/>
-      <c r="V12" s="369"/>
+      <c r="V12" s="385"/>
       <c r="W12" s="159"/>
-      <c r="X12" s="369"/>
+      <c r="X12" s="385"/>
       <c r="Y12" s="159"/>
-      <c r="Z12" s="369"/>
+      <c r="Z12" s="385"/>
       <c r="AA12" s="159"/>
-      <c r="AB12" s="369"/>
+      <c r="AB12" s="385"/>
       <c r="AC12" s="159"/>
-      <c r="AD12" s="369"/>
+      <c r="AD12" s="385"/>
       <c r="AE12" s="159"/>
-      <c r="AF12" s="369"/>
+      <c r="AF12" s="385"/>
       <c r="AG12" s="159"/>
-      <c r="AH12" s="369"/>
+      <c r="AH12" s="385"/>
       <c r="AI12" s="159"/>
       <c r="AJ12" s="138"/>
       <c r="AK12" s="139"/>
@@ -47534,38 +47611,38 @@
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="137"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="370"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="372"/>
-      <c r="J13" s="373"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="360"/>
+      <c r="I13" s="361"/>
+      <c r="J13" s="362"/>
       <c r="K13" s="157"/>
-      <c r="L13" s="371"/>
-      <c r="M13" s="372"/>
-      <c r="N13" s="373"/>
+      <c r="L13" s="360"/>
+      <c r="M13" s="361"/>
+      <c r="N13" s="362"/>
       <c r="O13" s="157"/>
-      <c r="P13" s="373"/>
+      <c r="P13" s="362"/>
       <c r="Q13" s="157"/>
-      <c r="R13" s="373"/>
+      <c r="R13" s="362"/>
       <c r="S13" s="157"/>
-      <c r="T13" s="373"/>
+      <c r="T13" s="362"/>
       <c r="U13" s="157"/>
-      <c r="V13" s="373"/>
+      <c r="V13" s="362"/>
       <c r="W13" s="157"/>
-      <c r="X13" s="373"/>
+      <c r="X13" s="362"/>
       <c r="Y13" s="157"/>
-      <c r="Z13" s="373"/>
+      <c r="Z13" s="362"/>
       <c r="AA13" s="157"/>
-      <c r="AB13" s="373"/>
+      <c r="AB13" s="362"/>
       <c r="AC13" s="157"/>
-      <c r="AD13" s="373"/>
+      <c r="AD13" s="362"/>
       <c r="AE13" s="157"/>
-      <c r="AF13" s="373"/>
+      <c r="AF13" s="362"/>
       <c r="AG13" s="157"/>
-      <c r="AH13" s="373"/>
+      <c r="AH13" s="362"/>
       <c r="AI13" s="157"/>
       <c r="AJ13" s="191"/>
       <c r="AK13" s="192"/>
@@ -47576,19 +47653,19 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="355"/>
-      <c r="B14" s="356"/>
-      <c r="C14" s="361"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
-      <c r="G14" s="376"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="A14" s="366"/>
+      <c r="B14" s="367"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="388"/>
+      <c r="E14" s="388"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="388"/>
+      <c r="H14" s="389"/>
+      <c r="I14" s="390"/>
       <c r="J14" s="171"/>
       <c r="K14" s="172"/>
-      <c r="L14" s="377"/>
-      <c r="M14" s="378"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="390"/>
       <c r="N14" s="171"/>
       <c r="O14" s="172"/>
       <c r="P14" s="171"/>
@@ -47620,41 +47697,41 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
-      <c r="A15" s="357"/>
-      <c r="B15" s="358"/>
-      <c r="C15" s="362"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="386"/>
-      <c r="I15" s="387"/>
+      <c r="A15" s="368"/>
+      <c r="B15" s="369"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="391"/>
+      <c r="H15" s="392"/>
+      <c r="I15" s="393"/>
       <c r="J15" s="158"/>
-      <c r="K15" s="379"/>
-      <c r="L15" s="386"/>
-      <c r="M15" s="387"/>
+      <c r="K15" s="380"/>
+      <c r="L15" s="392"/>
+      <c r="M15" s="393"/>
       <c r="N15" s="158"/>
-      <c r="O15" s="379"/>
+      <c r="O15" s="380"/>
       <c r="P15" s="158"/>
-      <c r="Q15" s="379"/>
+      <c r="Q15" s="380"/>
       <c r="R15" s="158"/>
-      <c r="S15" s="379"/>
+      <c r="S15" s="380"/>
       <c r="T15" s="158"/>
-      <c r="U15" s="379"/>
+      <c r="U15" s="380"/>
       <c r="V15" s="158"/>
-      <c r="W15" s="379"/>
+      <c r="W15" s="380"/>
       <c r="X15" s="158"/>
-      <c r="Y15" s="379"/>
+      <c r="Y15" s="380"/>
       <c r="Z15" s="158"/>
-      <c r="AA15" s="379"/>
+      <c r="AA15" s="380"/>
       <c r="AB15" s="158"/>
-      <c r="AC15" s="379"/>
+      <c r="AC15" s="380"/>
       <c r="AD15" s="158"/>
-      <c r="AE15" s="379"/>
+      <c r="AE15" s="380"/>
       <c r="AF15" s="158"/>
-      <c r="AG15" s="379"/>
+      <c r="AG15" s="380"/>
       <c r="AH15" s="158"/>
-      <c r="AI15" s="379"/>
+      <c r="AI15" s="380"/>
       <c r="AJ15" s="150"/>
       <c r="AK15" s="151"/>
       <c r="AL15" s="151"/>
@@ -47664,41 +47741,41 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="1:42" ht="15" customHeight="1">
-      <c r="A16" s="359"/>
-      <c r="B16" s="360"/>
-      <c r="C16" s="363"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="381"/>
-      <c r="I16" s="382"/>
-      <c r="J16" s="383"/>
-      <c r="K16" s="384"/>
-      <c r="L16" s="381"/>
-      <c r="M16" s="382"/>
-      <c r="N16" s="383"/>
-      <c r="O16" s="384"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="384"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="384"/>
-      <c r="T16" s="383"/>
-      <c r="U16" s="384"/>
-      <c r="V16" s="383"/>
-      <c r="W16" s="384"/>
-      <c r="X16" s="383"/>
-      <c r="Y16" s="384"/>
-      <c r="Z16" s="383"/>
-      <c r="AA16" s="384"/>
-      <c r="AB16" s="383"/>
-      <c r="AC16" s="384"/>
-      <c r="AD16" s="383"/>
-      <c r="AE16" s="384"/>
-      <c r="AF16" s="383"/>
-      <c r="AG16" s="384"/>
-      <c r="AH16" s="383"/>
-      <c r="AI16" s="384"/>
+      <c r="A16" s="370"/>
+      <c r="B16" s="371"/>
+      <c r="C16" s="374"/>
+      <c r="D16" s="375"/>
+      <c r="E16" s="375"/>
+      <c r="F16" s="375"/>
+      <c r="G16" s="375"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="377"/>
+      <c r="J16" s="378"/>
+      <c r="K16" s="379"/>
+      <c r="L16" s="376"/>
+      <c r="M16" s="377"/>
+      <c r="N16" s="378"/>
+      <c r="O16" s="379"/>
+      <c r="P16" s="378"/>
+      <c r="Q16" s="379"/>
+      <c r="R16" s="378"/>
+      <c r="S16" s="379"/>
+      <c r="T16" s="378"/>
+      <c r="U16" s="379"/>
+      <c r="V16" s="378"/>
+      <c r="W16" s="379"/>
+      <c r="X16" s="378"/>
+      <c r="Y16" s="379"/>
+      <c r="Z16" s="378"/>
+      <c r="AA16" s="379"/>
+      <c r="AB16" s="378"/>
+      <c r="AC16" s="379"/>
+      <c r="AD16" s="378"/>
+      <c r="AE16" s="379"/>
+      <c r="AF16" s="378"/>
+      <c r="AG16" s="379"/>
+      <c r="AH16" s="378"/>
+      <c r="AI16" s="379"/>
       <c r="AJ16" s="150"/>
       <c r="AK16" s="151"/>
       <c r="AL16" s="151"/>
@@ -47744,9 +47821,9 @@
       <c r="AH17" s="125"/>
       <c r="AI17" s="125"/>
       <c r="AJ17" s="119"/>
-      <c r="AK17" s="388"/>
-      <c r="AL17" s="389"/>
-      <c r="AM17" s="389"/>
+      <c r="AK17" s="394"/>
+      <c r="AL17" s="395"/>
+      <c r="AM17" s="395"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
@@ -47788,9 +47865,9 @@
       <c r="AH18" s="124"/>
       <c r="AI18" s="124"/>
       <c r="AJ18" s="113"/>
-      <c r="AK18" s="392"/>
-      <c r="AL18" s="393"/>
-      <c r="AM18" s="393"/>
+      <c r="AK18" s="398"/>
+      <c r="AL18" s="399"/>
+      <c r="AM18" s="399"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
@@ -47832,16 +47909,16 @@
       <c r="AH19" s="123"/>
       <c r="AI19" s="123"/>
       <c r="AJ19" s="116"/>
-      <c r="AK19" s="390"/>
-      <c r="AL19" s="391"/>
-      <c r="AM19" s="391"/>
+      <c r="AK19" s="396"/>
+      <c r="AL19" s="397"/>
+      <c r="AM19" s="397"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="315"/>
-      <c r="B20" s="315"/>
+      <c r="A20" s="319"/>
+      <c r="B20" s="319"/>
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
@@ -47883,17 +47960,17 @@
     <row r="21" spans="1:42" ht="15" customHeight="1">
       <c r="A21" s="132"/>
       <c r="B21" s="133"/>
-      <c r="C21" s="352"/>
-      <c r="D21" s="365"/>
-      <c r="E21" s="365"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="365"/>
-      <c r="H21" s="366"/>
-      <c r="I21" s="367"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="383"/>
       <c r="J21" s="148"/>
       <c r="K21" s="149"/>
-      <c r="L21" s="366"/>
-      <c r="M21" s="367"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="383"/>
       <c r="N21" s="148"/>
       <c r="O21" s="149"/>
       <c r="P21" s="148"/>
@@ -47927,38 +48004,38 @@
     <row r="22" spans="1:42" ht="15" customHeight="1">
       <c r="A22" s="134"/>
       <c r="B22" s="135"/>
-      <c r="C22" s="353"/>
-      <c r="D22" s="368"/>
-      <c r="E22" s="368"/>
-      <c r="F22" s="368"/>
-      <c r="G22" s="368"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="369"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="387"/>
+      <c r="J22" s="385"/>
       <c r="K22" s="159"/>
-      <c r="L22" s="374"/>
-      <c r="M22" s="375"/>
-      <c r="N22" s="369"/>
+      <c r="L22" s="386"/>
+      <c r="M22" s="387"/>
+      <c r="N22" s="385"/>
       <c r="O22" s="159"/>
-      <c r="P22" s="369"/>
+      <c r="P22" s="385"/>
       <c r="Q22" s="159"/>
-      <c r="R22" s="369"/>
+      <c r="R22" s="385"/>
       <c r="S22" s="159"/>
-      <c r="T22" s="369"/>
+      <c r="T22" s="385"/>
       <c r="U22" s="159"/>
-      <c r="V22" s="369"/>
+      <c r="V22" s="385"/>
       <c r="W22" s="159"/>
-      <c r="X22" s="369"/>
+      <c r="X22" s="385"/>
       <c r="Y22" s="159"/>
-      <c r="Z22" s="369"/>
+      <c r="Z22" s="385"/>
       <c r="AA22" s="159"/>
-      <c r="AB22" s="369"/>
+      <c r="AB22" s="385"/>
       <c r="AC22" s="159"/>
-      <c r="AD22" s="369"/>
+      <c r="AD22" s="385"/>
       <c r="AE22" s="159"/>
-      <c r="AF22" s="369"/>
+      <c r="AF22" s="385"/>
       <c r="AG22" s="159"/>
-      <c r="AH22" s="369"/>
+      <c r="AH22" s="385"/>
       <c r="AI22" s="159"/>
       <c r="AJ22" s="138"/>
       <c r="AK22" s="139"/>
@@ -47971,39 +48048,39 @@
     <row r="23" spans="1:42" ht="15" customHeight="1">
       <c r="A23" s="136"/>
       <c r="B23" s="137"/>
-      <c r="C23" s="354"/>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="394"/>
-      <c r="H23" s="395"/>
-      <c r="I23" s="396"/>
-      <c r="J23" s="397"/>
-      <c r="K23" s="398"/>
-      <c r="L23" s="395"/>
-      <c r="M23" s="396"/>
-      <c r="N23" s="397"/>
-      <c r="O23" s="398"/>
-      <c r="P23" s="397"/>
-      <c r="Q23" s="398"/>
-      <c r="R23" s="397"/>
-      <c r="S23" s="398"/>
-      <c r="T23" s="397"/>
-      <c r="U23" s="398"/>
-      <c r="V23" s="397"/>
-      <c r="W23" s="398"/>
-      <c r="X23" s="397"/>
-      <c r="Y23" s="398"/>
-      <c r="Z23" s="397"/>
-      <c r="AA23" s="398"/>
-      <c r="AB23" s="397"/>
-      <c r="AC23" s="398"/>
-      <c r="AD23" s="397"/>
-      <c r="AE23" s="398"/>
-      <c r="AF23" s="397"/>
-      <c r="AG23" s="398"/>
-      <c r="AH23" s="397"/>
-      <c r="AI23" s="398"/>
+      <c r="C23" s="365"/>
+      <c r="D23" s="400"/>
+      <c r="E23" s="400"/>
+      <c r="F23" s="400"/>
+      <c r="G23" s="400"/>
+      <c r="H23" s="401"/>
+      <c r="I23" s="402"/>
+      <c r="J23" s="403"/>
+      <c r="K23" s="404"/>
+      <c r="L23" s="401"/>
+      <c r="M23" s="402"/>
+      <c r="N23" s="403"/>
+      <c r="O23" s="404"/>
+      <c r="P23" s="403"/>
+      <c r="Q23" s="404"/>
+      <c r="R23" s="403"/>
+      <c r="S23" s="404"/>
+      <c r="T23" s="403"/>
+      <c r="U23" s="404"/>
+      <c r="V23" s="403"/>
+      <c r="W23" s="404"/>
+      <c r="X23" s="403"/>
+      <c r="Y23" s="404"/>
+      <c r="Z23" s="403"/>
+      <c r="AA23" s="404"/>
+      <c r="AB23" s="403"/>
+      <c r="AC23" s="404"/>
+      <c r="AD23" s="403"/>
+      <c r="AE23" s="404"/>
+      <c r="AF23" s="403"/>
+      <c r="AG23" s="404"/>
+      <c r="AH23" s="403"/>
+      <c r="AI23" s="404"/>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="139"/>
       <c r="AL23" s="139"/>
@@ -48048,10 +48125,10 @@
       <c r="AG24" s="125"/>
       <c r="AH24" s="125"/>
       <c r="AI24" s="125"/>
-      <c r="AJ24" s="119"/>
-      <c r="AK24" s="388"/>
-      <c r="AL24" s="389"/>
-      <c r="AM24" s="389"/>
+      <c r="AJ24" s="436"/>
+      <c r="AK24" s="437"/>
+      <c r="AL24" s="438"/>
+      <c r="AM24" s="438"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
@@ -48092,10 +48169,10 @@
       <c r="AG25" s="124"/>
       <c r="AH25" s="124"/>
       <c r="AI25" s="124"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="392"/>
-      <c r="AL25" s="393"/>
-      <c r="AM25" s="393"/>
+      <c r="AJ25" s="439"/>
+      <c r="AK25" s="440"/>
+      <c r="AL25" s="441"/>
+      <c r="AM25" s="441"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
@@ -48136,10 +48213,10 @@
       <c r="AG26" s="123"/>
       <c r="AH26" s="123"/>
       <c r="AI26" s="123"/>
-      <c r="AJ26" s="116"/>
-      <c r="AK26" s="390"/>
-      <c r="AL26" s="391"/>
-      <c r="AM26" s="391"/>
+      <c r="AJ26" s="442"/>
+      <c r="AK26" s="443"/>
+      <c r="AL26" s="444"/>
+      <c r="AM26" s="444"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
@@ -48148,42 +48225,42 @@
       <c r="A27" s="95"/>
       <c r="B27" s="134"/>
       <c r="C27" s="134"/>
-      <c r="D27" s="401"/>
-      <c r="E27" s="401"/>
-      <c r="F27" s="401"/>
-      <c r="G27" s="401"/>
-      <c r="H27" s="401"/>
-      <c r="I27" s="401"/>
-      <c r="J27" s="401"/>
-      <c r="K27" s="401"/>
-      <c r="L27" s="401"/>
-      <c r="M27" s="401"/>
-      <c r="N27" s="401"/>
-      <c r="O27" s="401"/>
-      <c r="P27" s="399"/>
-      <c r="Q27" s="400"/>
-      <c r="R27" s="399"/>
-      <c r="S27" s="400"/>
-      <c r="T27" s="399"/>
-      <c r="U27" s="400"/>
-      <c r="V27" s="399"/>
-      <c r="W27" s="400"/>
-      <c r="X27" s="399"/>
-      <c r="Y27" s="400"/>
-      <c r="Z27" s="399"/>
-      <c r="AA27" s="400"/>
-      <c r="AB27" s="399"/>
-      <c r="AC27" s="400"/>
-      <c r="AD27" s="399"/>
-      <c r="AE27" s="400"/>
-      <c r="AF27" s="399"/>
-      <c r="AG27" s="400"/>
-      <c r="AH27" s="399"/>
-      <c r="AI27" s="400"/>
+      <c r="D27" s="407"/>
+      <c r="E27" s="407"/>
+      <c r="F27" s="407"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="407"/>
+      <c r="I27" s="407"/>
+      <c r="J27" s="407"/>
+      <c r="K27" s="407"/>
+      <c r="L27" s="407"/>
+      <c r="M27" s="407"/>
+      <c r="N27" s="407"/>
+      <c r="O27" s="407"/>
+      <c r="P27" s="405"/>
+      <c r="Q27" s="406"/>
+      <c r="R27" s="405"/>
+      <c r="S27" s="406"/>
+      <c r="T27" s="405"/>
+      <c r="U27" s="406"/>
+      <c r="V27" s="405"/>
+      <c r="W27" s="406"/>
+      <c r="X27" s="405"/>
+      <c r="Y27" s="406"/>
+      <c r="Z27" s="405"/>
+      <c r="AA27" s="406"/>
+      <c r="AB27" s="405"/>
+      <c r="AC27" s="406"/>
+      <c r="AD27" s="405"/>
+      <c r="AE27" s="406"/>
+      <c r="AF27" s="405"/>
+      <c r="AG27" s="406"/>
+      <c r="AH27" s="405"/>
+      <c r="AI27" s="406"/>
       <c r="AJ27" s="105"/>
       <c r="AK27" s="115"/>
-      <c r="AL27" s="109"/>
-      <c r="AM27" s="109"/>
+      <c r="AL27" s="445"/>
+      <c r="AM27" s="445"/>
     </row>
     <row r="28" spans="1:42" ht="15" customHeight="1">
       <c r="A28" s="134"/>
@@ -48223,49 +48300,49 @@
       <c r="AI28" s="87"/>
       <c r="AJ28" s="105"/>
       <c r="AK28" s="115"/>
-      <c r="AL28" s="109"/>
-      <c r="AM28" s="109"/>
+      <c r="AL28" s="445"/>
+      <c r="AM28" s="445"/>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="134"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402"/>
-      <c r="G29" s="402"/>
-      <c r="H29" s="402"/>
-      <c r="I29" s="402"/>
-      <c r="J29" s="402"/>
-      <c r="K29" s="402"/>
-      <c r="L29" s="402"/>
-      <c r="M29" s="402"/>
-      <c r="N29" s="402"/>
-      <c r="O29" s="402"/>
-      <c r="P29" s="329"/>
-      <c r="Q29" s="330"/>
-      <c r="R29" s="329"/>
-      <c r="S29" s="330"/>
-      <c r="T29" s="329"/>
-      <c r="U29" s="330"/>
-      <c r="V29" s="329"/>
-      <c r="W29" s="330"/>
-      <c r="X29" s="329"/>
-      <c r="Y29" s="330"/>
-      <c r="Z29" s="329"/>
-      <c r="AA29" s="330"/>
-      <c r="AB29" s="329"/>
-      <c r="AC29" s="330"/>
-      <c r="AD29" s="329"/>
-      <c r="AE29" s="330"/>
-      <c r="AF29" s="329"/>
-      <c r="AG29" s="330"/>
-      <c r="AH29" s="329"/>
-      <c r="AI29" s="330"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="409"/>
+      <c r="F29" s="409"/>
+      <c r="G29" s="409"/>
+      <c r="H29" s="409"/>
+      <c r="I29" s="409"/>
+      <c r="J29" s="409"/>
+      <c r="K29" s="409"/>
+      <c r="L29" s="409"/>
+      <c r="M29" s="409"/>
+      <c r="N29" s="409"/>
+      <c r="O29" s="409"/>
+      <c r="P29" s="337"/>
+      <c r="Q29" s="338"/>
+      <c r="R29" s="337"/>
+      <c r="S29" s="338"/>
+      <c r="T29" s="337"/>
+      <c r="U29" s="338"/>
+      <c r="V29" s="337"/>
+      <c r="W29" s="338"/>
+      <c r="X29" s="337"/>
+      <c r="Y29" s="338"/>
+      <c r="Z29" s="337"/>
+      <c r="AA29" s="338"/>
+      <c r="AB29" s="337"/>
+      <c r="AC29" s="338"/>
+      <c r="AD29" s="337"/>
+      <c r="AE29" s="338"/>
+      <c r="AF29" s="337"/>
+      <c r="AG29" s="338"/>
+      <c r="AH29" s="337"/>
+      <c r="AI29" s="338"/>
       <c r="AJ29" s="105"/>
       <c r="AK29" s="115"/>
-      <c r="AL29" s="109"/>
-      <c r="AM29" s="109"/>
+      <c r="AL29" s="445"/>
+      <c r="AM29" s="445"/>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1">
       <c r="A30" s="93"/>
@@ -48303,8 +48380,8 @@
       <c r="AG30" s="100"/>
       <c r="AH30" s="99"/>
       <c r="AI30" s="100"/>
-      <c r="AJ30" s="102"/>
-      <c r="AK30" s="121"/>
+      <c r="AJ30" s="410"/>
+      <c r="AK30" s="411"/>
       <c r="AL30" s="107"/>
       <c r="AM30" s="107"/>
     </row>
@@ -48344,8 +48421,8 @@
       <c r="AG31" s="87"/>
       <c r="AH31" s="86"/>
       <c r="AI31" s="87"/>
-      <c r="AJ31" s="105"/>
-      <c r="AK31" s="115"/>
+      <c r="AJ31" s="335"/>
+      <c r="AK31" s="408"/>
       <c r="AL31" s="109"/>
       <c r="AM31" s="109"/>
     </row>
@@ -48385,8 +48462,8 @@
       <c r="AG32" s="89"/>
       <c r="AH32" s="88"/>
       <c r="AI32" s="89"/>
-      <c r="AJ32" s="91"/>
-      <c r="AK32" s="118"/>
+      <c r="AJ32" s="412"/>
+      <c r="AK32" s="413"/>
       <c r="AL32" s="111"/>
       <c r="AM32" s="111"/>
     </row>
@@ -48394,40 +48471,40 @@
       <c r="A33" s="95"/>
       <c r="B33" s="134"/>
       <c r="C33" s="134"/>
-      <c r="D33" s="401"/>
-      <c r="E33" s="401"/>
-      <c r="F33" s="401"/>
-      <c r="G33" s="401"/>
-      <c r="H33" s="401"/>
-      <c r="I33" s="401"/>
-      <c r="J33" s="401"/>
-      <c r="K33" s="401"/>
-      <c r="L33" s="401"/>
-      <c r="M33" s="401"/>
-      <c r="N33" s="401"/>
-      <c r="O33" s="401"/>
-      <c r="P33" s="399"/>
-      <c r="Q33" s="400"/>
-      <c r="R33" s="399"/>
-      <c r="S33" s="400"/>
-      <c r="T33" s="399"/>
-      <c r="U33" s="400"/>
-      <c r="V33" s="399"/>
-      <c r="W33" s="400"/>
-      <c r="X33" s="399"/>
-      <c r="Y33" s="400"/>
-      <c r="Z33" s="399"/>
-      <c r="AA33" s="400"/>
-      <c r="AB33" s="399"/>
-      <c r="AC33" s="400"/>
-      <c r="AD33" s="399"/>
-      <c r="AE33" s="400"/>
-      <c r="AF33" s="399"/>
-      <c r="AG33" s="400"/>
-      <c r="AH33" s="399"/>
-      <c r="AI33" s="400"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="115"/>
+      <c r="D33" s="407"/>
+      <c r="E33" s="407"/>
+      <c r="F33" s="407"/>
+      <c r="G33" s="407"/>
+      <c r="H33" s="407"/>
+      <c r="I33" s="407"/>
+      <c r="J33" s="407"/>
+      <c r="K33" s="407"/>
+      <c r="L33" s="407"/>
+      <c r="M33" s="407"/>
+      <c r="N33" s="407"/>
+      <c r="O33" s="407"/>
+      <c r="P33" s="405"/>
+      <c r="Q33" s="406"/>
+      <c r="R33" s="405"/>
+      <c r="S33" s="406"/>
+      <c r="T33" s="405"/>
+      <c r="U33" s="406"/>
+      <c r="V33" s="405"/>
+      <c r="W33" s="406"/>
+      <c r="X33" s="405"/>
+      <c r="Y33" s="406"/>
+      <c r="Z33" s="405"/>
+      <c r="AA33" s="406"/>
+      <c r="AB33" s="405"/>
+      <c r="AC33" s="406"/>
+      <c r="AD33" s="405"/>
+      <c r="AE33" s="406"/>
+      <c r="AF33" s="405"/>
+      <c r="AG33" s="406"/>
+      <c r="AH33" s="405"/>
+      <c r="AI33" s="406"/>
+      <c r="AJ33" s="335"/>
+      <c r="AK33" s="408"/>
       <c r="AL33" s="109"/>
       <c r="AM33" s="109"/>
     </row>
@@ -48467,8 +48544,8 @@
       <c r="AG34" s="87"/>
       <c r="AH34" s="86"/>
       <c r="AI34" s="87"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="115"/>
+      <c r="AJ34" s="335"/>
+      <c r="AK34" s="408"/>
       <c r="AL34" s="109"/>
       <c r="AM34" s="109"/>
     </row>
@@ -48476,40 +48553,40 @@
       <c r="A35" s="134"/>
       <c r="B35" s="134"/>
       <c r="C35" s="134"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="402"/>
-      <c r="F35" s="402"/>
-      <c r="G35" s="402"/>
-      <c r="H35" s="402"/>
-      <c r="I35" s="402"/>
-      <c r="J35" s="402"/>
-      <c r="K35" s="402"/>
-      <c r="L35" s="402"/>
-      <c r="M35" s="402"/>
-      <c r="N35" s="402"/>
-      <c r="O35" s="402"/>
-      <c r="P35" s="329"/>
-      <c r="Q35" s="330"/>
-      <c r="R35" s="329"/>
-      <c r="S35" s="330"/>
-      <c r="T35" s="329"/>
-      <c r="U35" s="330"/>
-      <c r="V35" s="329"/>
-      <c r="W35" s="330"/>
-      <c r="X35" s="329"/>
-      <c r="Y35" s="330"/>
-      <c r="Z35" s="329"/>
-      <c r="AA35" s="330"/>
-      <c r="AB35" s="329"/>
-      <c r="AC35" s="330"/>
-      <c r="AD35" s="329"/>
-      <c r="AE35" s="330"/>
-      <c r="AF35" s="329"/>
-      <c r="AG35" s="330"/>
-      <c r="AH35" s="329"/>
-      <c r="AI35" s="330"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="115"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
+      <c r="L35" s="409"/>
+      <c r="M35" s="409"/>
+      <c r="N35" s="409"/>
+      <c r="O35" s="409"/>
+      <c r="P35" s="337"/>
+      <c r="Q35" s="338"/>
+      <c r="R35" s="337"/>
+      <c r="S35" s="338"/>
+      <c r="T35" s="337"/>
+      <c r="U35" s="338"/>
+      <c r="V35" s="337"/>
+      <c r="W35" s="338"/>
+      <c r="X35" s="337"/>
+      <c r="Y35" s="338"/>
+      <c r="Z35" s="337"/>
+      <c r="AA35" s="338"/>
+      <c r="AB35" s="337"/>
+      <c r="AC35" s="338"/>
+      <c r="AD35" s="337"/>
+      <c r="AE35" s="338"/>
+      <c r="AF35" s="337"/>
+      <c r="AG35" s="338"/>
+      <c r="AH35" s="337"/>
+      <c r="AI35" s="338"/>
+      <c r="AJ35" s="335"/>
+      <c r="AK35" s="408"/>
       <c r="AL35" s="109"/>
       <c r="AM35" s="109"/>
     </row>
@@ -48549,8 +48626,8 @@
       <c r="AG36" s="100"/>
       <c r="AH36" s="99"/>
       <c r="AI36" s="100"/>
-      <c r="AJ36" s="102"/>
-      <c r="AK36" s="121"/>
+      <c r="AJ36" s="410"/>
+      <c r="AK36" s="411"/>
       <c r="AL36" s="107"/>
       <c r="AM36" s="107"/>
     </row>
@@ -48590,8 +48667,8 @@
       <c r="AG37" s="87"/>
       <c r="AH37" s="86"/>
       <c r="AI37" s="87"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="115"/>
+      <c r="AJ37" s="335"/>
+      <c r="AK37" s="408"/>
       <c r="AL37" s="109"/>
       <c r="AM37" s="109"/>
     </row>
@@ -48631,8 +48708,8 @@
       <c r="AG38" s="89"/>
       <c r="AH38" s="88"/>
       <c r="AI38" s="89"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="118"/>
+      <c r="AJ38" s="412"/>
+      <c r="AK38" s="413"/>
       <c r="AL38" s="111"/>
       <c r="AM38" s="111"/>
     </row>
@@ -48640,40 +48717,40 @@
       <c r="A39" s="95"/>
       <c r="B39" s="134"/>
       <c r="C39" s="134"/>
-      <c r="D39" s="401"/>
-      <c r="E39" s="401"/>
-      <c r="F39" s="401"/>
-      <c r="G39" s="401"/>
-      <c r="H39" s="401"/>
-      <c r="I39" s="401"/>
-      <c r="J39" s="401"/>
-      <c r="K39" s="401"/>
-      <c r="L39" s="401"/>
-      <c r="M39" s="401"/>
-      <c r="N39" s="401"/>
-      <c r="O39" s="401"/>
-      <c r="P39" s="399"/>
-      <c r="Q39" s="400"/>
-      <c r="R39" s="399"/>
-      <c r="S39" s="400"/>
-      <c r="T39" s="399"/>
-      <c r="U39" s="400"/>
-      <c r="V39" s="399"/>
-      <c r="W39" s="400"/>
-      <c r="X39" s="399"/>
-      <c r="Y39" s="400"/>
-      <c r="Z39" s="399"/>
-      <c r="AA39" s="400"/>
-      <c r="AB39" s="399"/>
-      <c r="AC39" s="400"/>
-      <c r="AD39" s="399"/>
-      <c r="AE39" s="400"/>
-      <c r="AF39" s="399"/>
-      <c r="AG39" s="400"/>
-      <c r="AH39" s="399"/>
-      <c r="AI39" s="400"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="115"/>
+      <c r="D39" s="407"/>
+      <c r="E39" s="407"/>
+      <c r="F39" s="407"/>
+      <c r="G39" s="407"/>
+      <c r="H39" s="407"/>
+      <c r="I39" s="407"/>
+      <c r="J39" s="407"/>
+      <c r="K39" s="407"/>
+      <c r="L39" s="407"/>
+      <c r="M39" s="407"/>
+      <c r="N39" s="407"/>
+      <c r="O39" s="407"/>
+      <c r="P39" s="405"/>
+      <c r="Q39" s="406"/>
+      <c r="R39" s="405"/>
+      <c r="S39" s="406"/>
+      <c r="T39" s="405"/>
+      <c r="U39" s="406"/>
+      <c r="V39" s="405"/>
+      <c r="W39" s="406"/>
+      <c r="X39" s="405"/>
+      <c r="Y39" s="406"/>
+      <c r="Z39" s="405"/>
+      <c r="AA39" s="406"/>
+      <c r="AB39" s="405"/>
+      <c r="AC39" s="406"/>
+      <c r="AD39" s="405"/>
+      <c r="AE39" s="406"/>
+      <c r="AF39" s="405"/>
+      <c r="AG39" s="406"/>
+      <c r="AH39" s="405"/>
+      <c r="AI39" s="406"/>
+      <c r="AJ39" s="335"/>
+      <c r="AK39" s="408"/>
       <c r="AL39" s="109"/>
       <c r="AM39" s="109"/>
     </row>
@@ -48713,8 +48790,8 @@
       <c r="AG40" s="87"/>
       <c r="AH40" s="86"/>
       <c r="AI40" s="87"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="115"/>
+      <c r="AJ40" s="335"/>
+      <c r="AK40" s="408"/>
       <c r="AL40" s="109"/>
       <c r="AM40" s="109"/>
     </row>
@@ -48754,18 +48831,18 @@
       <c r="AG41" s="89"/>
       <c r="AH41" s="88"/>
       <c r="AI41" s="89"/>
-      <c r="AJ41" s="91"/>
-      <c r="AK41" s="118"/>
+      <c r="AJ41" s="412"/>
+      <c r="AK41" s="413"/>
       <c r="AL41" s="111"/>
       <c r="AM41" s="111"/>
     </row>
     <row r="42" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="136"/>
       <c r="B42" s="136"/>
-      <c r="C42" s="364"/>
-      <c r="D42" s="364"/>
-      <c r="E42" s="364"/>
-      <c r="F42" s="364"/>
+      <c r="C42" s="358"/>
+      <c r="D42" s="358"/>
+      <c r="E42" s="358"/>
+      <c r="F42" s="358"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
@@ -48801,8 +48878,8 @@
       <c r="AM42" s="27"/>
     </row>
     <row r="43" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="315"/>
-      <c r="B43" s="315"/>
+      <c r="A43" s="319"/>
+      <c r="B43" s="319"/>
       <c r="C43" s="111"/>
       <c r="D43" s="111"/>
       <c r="E43" s="111"/>
@@ -48844,17 +48921,17 @@
     <row r="44" spans="1:42" ht="15" customHeight="1">
       <c r="A44" s="132"/>
       <c r="B44" s="133"/>
-      <c r="C44" s="352"/>
-      <c r="D44" s="365"/>
-      <c r="E44" s="365"/>
-      <c r="F44" s="365"/>
-      <c r="G44" s="365"/>
-      <c r="H44" s="366"/>
-      <c r="I44" s="367"/>
+      <c r="C44" s="363"/>
+      <c r="D44" s="381"/>
+      <c r="E44" s="381"/>
+      <c r="F44" s="381"/>
+      <c r="G44" s="381"/>
+      <c r="H44" s="382"/>
+      <c r="I44" s="383"/>
       <c r="J44" s="148"/>
       <c r="K44" s="149"/>
-      <c r="L44" s="366"/>
-      <c r="M44" s="367"/>
+      <c r="L44" s="382"/>
+      <c r="M44" s="383"/>
       <c r="N44" s="148"/>
       <c r="O44" s="149"/>
       <c r="P44" s="148"/>
@@ -48888,38 +48965,38 @@
     <row r="45" spans="1:42" ht="15" customHeight="1">
       <c r="A45" s="134"/>
       <c r="B45" s="135"/>
-      <c r="C45" s="353"/>
-      <c r="D45" s="368"/>
-      <c r="E45" s="368"/>
-      <c r="F45" s="368"/>
-      <c r="G45" s="368"/>
-      <c r="H45" s="374"/>
-      <c r="I45" s="375"/>
-      <c r="J45" s="369"/>
+      <c r="C45" s="364"/>
+      <c r="D45" s="384"/>
+      <c r="E45" s="384"/>
+      <c r="F45" s="384"/>
+      <c r="G45" s="384"/>
+      <c r="H45" s="386"/>
+      <c r="I45" s="387"/>
+      <c r="J45" s="385"/>
       <c r="K45" s="159"/>
-      <c r="L45" s="374"/>
-      <c r="M45" s="375"/>
-      <c r="N45" s="369"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="385"/>
       <c r="O45" s="159"/>
-      <c r="P45" s="369"/>
+      <c r="P45" s="385"/>
       <c r="Q45" s="159"/>
-      <c r="R45" s="369"/>
+      <c r="R45" s="385"/>
       <c r="S45" s="159"/>
-      <c r="T45" s="369"/>
+      <c r="T45" s="385"/>
       <c r="U45" s="159"/>
-      <c r="V45" s="369"/>
+      <c r="V45" s="385"/>
       <c r="W45" s="159"/>
-      <c r="X45" s="369"/>
+      <c r="X45" s="385"/>
       <c r="Y45" s="159"/>
-      <c r="Z45" s="369"/>
+      <c r="Z45" s="385"/>
       <c r="AA45" s="159"/>
-      <c r="AB45" s="369"/>
+      <c r="AB45" s="385"/>
       <c r="AC45" s="159"/>
-      <c r="AD45" s="369"/>
+      <c r="AD45" s="385"/>
       <c r="AE45" s="159"/>
-      <c r="AF45" s="369"/>
+      <c r="AF45" s="385"/>
       <c r="AG45" s="159"/>
-      <c r="AH45" s="369"/>
+      <c r="AH45" s="385"/>
       <c r="AI45" s="159"/>
       <c r="AJ45" s="138"/>
       <c r="AK45" s="139"/>
@@ -48932,38 +49009,38 @@
     <row r="46" spans="1:42" ht="15" customHeight="1">
       <c r="A46" s="136"/>
       <c r="B46" s="137"/>
-      <c r="C46" s="354"/>
-      <c r="D46" s="370"/>
-      <c r="E46" s="370"/>
-      <c r="F46" s="370"/>
-      <c r="G46" s="370"/>
-      <c r="H46" s="371"/>
-      <c r="I46" s="372"/>
-      <c r="J46" s="373"/>
+      <c r="C46" s="365"/>
+      <c r="D46" s="359"/>
+      <c r="E46" s="359"/>
+      <c r="F46" s="359"/>
+      <c r="G46" s="359"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="361"/>
+      <c r="J46" s="362"/>
       <c r="K46" s="157"/>
-      <c r="L46" s="371"/>
-      <c r="M46" s="372"/>
-      <c r="N46" s="373"/>
+      <c r="L46" s="360"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="362"/>
       <c r="O46" s="157"/>
-      <c r="P46" s="373"/>
+      <c r="P46" s="362"/>
       <c r="Q46" s="157"/>
-      <c r="R46" s="373"/>
+      <c r="R46" s="362"/>
       <c r="S46" s="157"/>
-      <c r="T46" s="373"/>
+      <c r="T46" s="362"/>
       <c r="U46" s="157"/>
-      <c r="V46" s="373"/>
+      <c r="V46" s="362"/>
       <c r="W46" s="157"/>
-      <c r="X46" s="373"/>
+      <c r="X46" s="362"/>
       <c r="Y46" s="157"/>
-      <c r="Z46" s="373"/>
+      <c r="Z46" s="362"/>
       <c r="AA46" s="157"/>
-      <c r="AB46" s="373"/>
+      <c r="AB46" s="362"/>
       <c r="AC46" s="157"/>
-      <c r="AD46" s="373"/>
+      <c r="AD46" s="362"/>
       <c r="AE46" s="157"/>
-      <c r="AF46" s="373"/>
+      <c r="AF46" s="362"/>
       <c r="AG46" s="157"/>
-      <c r="AH46" s="373"/>
+      <c r="AH46" s="362"/>
       <c r="AI46" s="157"/>
       <c r="AJ46" s="191"/>
       <c r="AK46" s="192"/>
@@ -48974,19 +49051,19 @@
       <c r="AP46" s="3"/>
     </row>
     <row r="47" spans="1:42" ht="15" customHeight="1">
-      <c r="A47" s="355"/>
-      <c r="B47" s="356"/>
-      <c r="C47" s="361"/>
-      <c r="D47" s="376"/>
-      <c r="E47" s="376"/>
-      <c r="F47" s="376"/>
-      <c r="G47" s="376"/>
-      <c r="H47" s="377"/>
-      <c r="I47" s="378"/>
+      <c r="A47" s="366"/>
+      <c r="B47" s="367"/>
+      <c r="C47" s="372"/>
+      <c r="D47" s="388"/>
+      <c r="E47" s="388"/>
+      <c r="F47" s="388"/>
+      <c r="G47" s="388"/>
+      <c r="H47" s="389"/>
+      <c r="I47" s="390"/>
       <c r="J47" s="171"/>
       <c r="K47" s="172"/>
-      <c r="L47" s="377"/>
-      <c r="M47" s="378"/>
+      <c r="L47" s="389"/>
+      <c r="M47" s="390"/>
       <c r="N47" s="171"/>
       <c r="O47" s="172"/>
       <c r="P47" s="171"/>
@@ -49018,41 +49095,41 @@
       <c r="AP47" s="3"/>
     </row>
     <row r="48" spans="1:42" ht="15" customHeight="1">
-      <c r="A48" s="357"/>
-      <c r="B48" s="358"/>
-      <c r="C48" s="362"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="385"/>
-      <c r="F48" s="385"/>
-      <c r="G48" s="385"/>
-      <c r="H48" s="386"/>
-      <c r="I48" s="387"/>
+      <c r="A48" s="368"/>
+      <c r="B48" s="369"/>
+      <c r="C48" s="373"/>
+      <c r="D48" s="391"/>
+      <c r="E48" s="391"/>
+      <c r="F48" s="391"/>
+      <c r="G48" s="391"/>
+      <c r="H48" s="392"/>
+      <c r="I48" s="393"/>
       <c r="J48" s="158"/>
-      <c r="K48" s="379"/>
-      <c r="L48" s="386"/>
-      <c r="M48" s="387"/>
+      <c r="K48" s="380"/>
+      <c r="L48" s="392"/>
+      <c r="M48" s="393"/>
       <c r="N48" s="158"/>
-      <c r="O48" s="379"/>
+      <c r="O48" s="380"/>
       <c r="P48" s="158"/>
-      <c r="Q48" s="379"/>
+      <c r="Q48" s="380"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="379"/>
+      <c r="S48" s="380"/>
       <c r="T48" s="158"/>
-      <c r="U48" s="379"/>
+      <c r="U48" s="380"/>
       <c r="V48" s="158"/>
-      <c r="W48" s="379"/>
+      <c r="W48" s="380"/>
       <c r="X48" s="158"/>
-      <c r="Y48" s="379"/>
+      <c r="Y48" s="380"/>
       <c r="Z48" s="158"/>
-      <c r="AA48" s="379"/>
+      <c r="AA48" s="380"/>
       <c r="AB48" s="158"/>
-      <c r="AC48" s="379"/>
+      <c r="AC48" s="380"/>
       <c r="AD48" s="158"/>
-      <c r="AE48" s="379"/>
+      <c r="AE48" s="380"/>
       <c r="AF48" s="158"/>
-      <c r="AG48" s="379"/>
+      <c r="AG48" s="380"/>
       <c r="AH48" s="158"/>
-      <c r="AI48" s="379"/>
+      <c r="AI48" s="380"/>
       <c r="AJ48" s="150"/>
       <c r="AK48" s="151"/>
       <c r="AL48" s="151"/>
@@ -49062,41 +49139,41 @@
       <c r="AP48" s="3"/>
     </row>
     <row r="49" spans="1:42" ht="9.75" customHeight="1">
-      <c r="A49" s="359"/>
-      <c r="B49" s="360"/>
-      <c r="C49" s="363"/>
-      <c r="D49" s="380"/>
-      <c r="E49" s="380"/>
-      <c r="F49" s="380"/>
-      <c r="G49" s="380"/>
-      <c r="H49" s="381"/>
-      <c r="I49" s="382"/>
-      <c r="J49" s="383"/>
-      <c r="K49" s="384"/>
-      <c r="L49" s="381"/>
-      <c r="M49" s="382"/>
-      <c r="N49" s="383"/>
-      <c r="O49" s="384"/>
-      <c r="P49" s="383"/>
-      <c r="Q49" s="384"/>
-      <c r="R49" s="383"/>
-      <c r="S49" s="384"/>
-      <c r="T49" s="383"/>
-      <c r="U49" s="384"/>
-      <c r="V49" s="383"/>
-      <c r="W49" s="384"/>
-      <c r="X49" s="383"/>
-      <c r="Y49" s="384"/>
-      <c r="Z49" s="383"/>
-      <c r="AA49" s="384"/>
-      <c r="AB49" s="383"/>
-      <c r="AC49" s="384"/>
-      <c r="AD49" s="383"/>
-      <c r="AE49" s="384"/>
-      <c r="AF49" s="383"/>
-      <c r="AG49" s="384"/>
-      <c r="AH49" s="383"/>
-      <c r="AI49" s="384"/>
+      <c r="A49" s="370"/>
+      <c r="B49" s="371"/>
+      <c r="C49" s="374"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="375"/>
+      <c r="F49" s="375"/>
+      <c r="G49" s="375"/>
+      <c r="H49" s="376"/>
+      <c r="I49" s="377"/>
+      <c r="J49" s="378"/>
+      <c r="K49" s="379"/>
+      <c r="L49" s="376"/>
+      <c r="M49" s="377"/>
+      <c r="N49" s="378"/>
+      <c r="O49" s="379"/>
+      <c r="P49" s="378"/>
+      <c r="Q49" s="379"/>
+      <c r="R49" s="378"/>
+      <c r="S49" s="379"/>
+      <c r="T49" s="378"/>
+      <c r="U49" s="379"/>
+      <c r="V49" s="378"/>
+      <c r="W49" s="379"/>
+      <c r="X49" s="378"/>
+      <c r="Y49" s="379"/>
+      <c r="Z49" s="378"/>
+      <c r="AA49" s="379"/>
+      <c r="AB49" s="378"/>
+      <c r="AC49" s="379"/>
+      <c r="AD49" s="378"/>
+      <c r="AE49" s="379"/>
+      <c r="AF49" s="378"/>
+      <c r="AG49" s="379"/>
+      <c r="AH49" s="378"/>
+      <c r="AI49" s="379"/>
       <c r="AJ49" s="150"/>
       <c r="AK49" s="151"/>
       <c r="AL49" s="151"/>
@@ -49142,9 +49219,9 @@
       <c r="AH50" s="125"/>
       <c r="AI50" s="125"/>
       <c r="AJ50" s="119"/>
-      <c r="AK50" s="388"/>
-      <c r="AL50" s="389"/>
-      <c r="AM50" s="389"/>
+      <c r="AK50" s="394"/>
+      <c r="AL50" s="395"/>
+      <c r="AM50" s="395"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
@@ -49186,9 +49263,9 @@
       <c r="AH51" s="124"/>
       <c r="AI51" s="124"/>
       <c r="AJ51" s="113"/>
-      <c r="AK51" s="392"/>
-      <c r="AL51" s="393"/>
-      <c r="AM51" s="393"/>
+      <c r="AK51" s="398"/>
+      <c r="AL51" s="399"/>
+      <c r="AM51" s="399"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
@@ -49230,16 +49307,16 @@
       <c r="AH52" s="123"/>
       <c r="AI52" s="123"/>
       <c r="AJ52" s="116"/>
-      <c r="AK52" s="390"/>
-      <c r="AL52" s="391"/>
-      <c r="AM52" s="391"/>
+      <c r="AK52" s="396"/>
+      <c r="AL52" s="397"/>
+      <c r="AM52" s="397"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
     </row>
     <row r="53" spans="1:42" s="1" customFormat="1" ht="11.85" customHeight="1">
-      <c r="A53" s="315"/>
-      <c r="B53" s="315"/>
+      <c r="A53" s="319"/>
+      <c r="B53" s="319"/>
       <c r="C53" s="111"/>
       <c r="D53" s="111"/>
       <c r="E53" s="111"/>
@@ -49281,17 +49358,17 @@
     <row r="54" spans="1:42" ht="9.75" customHeight="1">
       <c r="A54" s="107"/>
       <c r="B54" s="108"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="365"/>
-      <c r="E54" s="365"/>
-      <c r="F54" s="365"/>
-      <c r="G54" s="365"/>
-      <c r="H54" s="366"/>
-      <c r="I54" s="367"/>
+      <c r="C54" s="363"/>
+      <c r="D54" s="381"/>
+      <c r="E54" s="381"/>
+      <c r="F54" s="381"/>
+      <c r="G54" s="381"/>
+      <c r="H54" s="382"/>
+      <c r="I54" s="383"/>
       <c r="J54" s="148"/>
       <c r="K54" s="149"/>
-      <c r="L54" s="366"/>
-      <c r="M54" s="367"/>
+      <c r="L54" s="382"/>
+      <c r="M54" s="383"/>
       <c r="N54" s="148"/>
       <c r="O54" s="149"/>
       <c r="P54" s="148"/>
@@ -49325,38 +49402,38 @@
     <row r="55" spans="1:42" ht="9.75" customHeight="1">
       <c r="A55" s="109"/>
       <c r="B55" s="110"/>
-      <c r="C55" s="353"/>
-      <c r="D55" s="368"/>
-      <c r="E55" s="368"/>
-      <c r="F55" s="368"/>
-      <c r="G55" s="368"/>
-      <c r="H55" s="374"/>
-      <c r="I55" s="375"/>
-      <c r="J55" s="369"/>
+      <c r="C55" s="364"/>
+      <c r="D55" s="384"/>
+      <c r="E55" s="384"/>
+      <c r="F55" s="384"/>
+      <c r="G55" s="384"/>
+      <c r="H55" s="386"/>
+      <c r="I55" s="387"/>
+      <c r="J55" s="385"/>
       <c r="K55" s="159"/>
-      <c r="L55" s="374"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="369"/>
+      <c r="L55" s="386"/>
+      <c r="M55" s="387"/>
+      <c r="N55" s="385"/>
       <c r="O55" s="159"/>
-      <c r="P55" s="369"/>
+      <c r="P55" s="385"/>
       <c r="Q55" s="159"/>
-      <c r="R55" s="369"/>
+      <c r="R55" s="385"/>
       <c r="S55" s="159"/>
-      <c r="T55" s="369"/>
+      <c r="T55" s="385"/>
       <c r="U55" s="159"/>
-      <c r="V55" s="369"/>
+      <c r="V55" s="385"/>
       <c r="W55" s="159"/>
-      <c r="X55" s="369"/>
+      <c r="X55" s="385"/>
       <c r="Y55" s="159"/>
-      <c r="Z55" s="369"/>
+      <c r="Z55" s="385"/>
       <c r="AA55" s="159"/>
-      <c r="AB55" s="369"/>
+      <c r="AB55" s="385"/>
       <c r="AC55" s="159"/>
-      <c r="AD55" s="369"/>
+      <c r="AD55" s="385"/>
       <c r="AE55" s="159"/>
-      <c r="AF55" s="369"/>
+      <c r="AF55" s="385"/>
       <c r="AG55" s="159"/>
-      <c r="AH55" s="369"/>
+      <c r="AH55" s="385"/>
       <c r="AI55" s="159"/>
       <c r="AJ55" s="138"/>
       <c r="AK55" s="139"/>
@@ -49369,39 +49446,39 @@
     <row r="56" spans="1:42" ht="9.75" customHeight="1">
       <c r="A56" s="111"/>
       <c r="B56" s="112"/>
-      <c r="C56" s="354"/>
-      <c r="D56" s="394"/>
-      <c r="E56" s="394"/>
-      <c r="F56" s="394"/>
-      <c r="G56" s="394"/>
-      <c r="H56" s="395"/>
-      <c r="I56" s="396"/>
-      <c r="J56" s="397"/>
-      <c r="K56" s="398"/>
-      <c r="L56" s="395"/>
-      <c r="M56" s="396"/>
-      <c r="N56" s="397"/>
-      <c r="O56" s="398"/>
-      <c r="P56" s="397"/>
-      <c r="Q56" s="398"/>
-      <c r="R56" s="397"/>
-      <c r="S56" s="398"/>
-      <c r="T56" s="397"/>
-      <c r="U56" s="398"/>
-      <c r="V56" s="397"/>
-      <c r="W56" s="398"/>
-      <c r="X56" s="397"/>
-      <c r="Y56" s="398"/>
-      <c r="Z56" s="397"/>
-      <c r="AA56" s="398"/>
-      <c r="AB56" s="397"/>
-      <c r="AC56" s="398"/>
-      <c r="AD56" s="397"/>
-      <c r="AE56" s="398"/>
-      <c r="AF56" s="397"/>
-      <c r="AG56" s="398"/>
-      <c r="AH56" s="397"/>
-      <c r="AI56" s="398"/>
+      <c r="C56" s="365"/>
+      <c r="D56" s="400"/>
+      <c r="E56" s="400"/>
+      <c r="F56" s="400"/>
+      <c r="G56" s="400"/>
+      <c r="H56" s="401"/>
+      <c r="I56" s="402"/>
+      <c r="J56" s="403"/>
+      <c r="K56" s="404"/>
+      <c r="L56" s="401"/>
+      <c r="M56" s="402"/>
+      <c r="N56" s="403"/>
+      <c r="O56" s="404"/>
+      <c r="P56" s="403"/>
+      <c r="Q56" s="404"/>
+      <c r="R56" s="403"/>
+      <c r="S56" s="404"/>
+      <c r="T56" s="403"/>
+      <c r="U56" s="404"/>
+      <c r="V56" s="403"/>
+      <c r="W56" s="404"/>
+      <c r="X56" s="403"/>
+      <c r="Y56" s="404"/>
+      <c r="Z56" s="403"/>
+      <c r="AA56" s="404"/>
+      <c r="AB56" s="403"/>
+      <c r="AC56" s="404"/>
+      <c r="AD56" s="403"/>
+      <c r="AE56" s="404"/>
+      <c r="AF56" s="403"/>
+      <c r="AG56" s="404"/>
+      <c r="AH56" s="403"/>
+      <c r="AI56" s="404"/>
       <c r="AJ56" s="138"/>
       <c r="AK56" s="139"/>
       <c r="AL56" s="139"/>
@@ -49447,9 +49524,9 @@
       <c r="AH57" s="125"/>
       <c r="AI57" s="125"/>
       <c r="AJ57" s="119"/>
-      <c r="AK57" s="388"/>
-      <c r="AL57" s="389"/>
-      <c r="AM57" s="389"/>
+      <c r="AK57" s="394"/>
+      <c r="AL57" s="395"/>
+      <c r="AM57" s="395"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
@@ -49491,9 +49568,9 @@
       <c r="AH58" s="124"/>
       <c r="AI58" s="124"/>
       <c r="AJ58" s="113"/>
-      <c r="AK58" s="392"/>
-      <c r="AL58" s="393"/>
-      <c r="AM58" s="393"/>
+      <c r="AK58" s="398"/>
+      <c r="AL58" s="399"/>
+      <c r="AM58" s="399"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
@@ -49535,9 +49612,9 @@
       <c r="AH59" s="123"/>
       <c r="AI59" s="123"/>
       <c r="AJ59" s="116"/>
-      <c r="AK59" s="390"/>
-      <c r="AL59" s="391"/>
-      <c r="AM59" s="391"/>
+      <c r="AK59" s="396"/>
+      <c r="AL59" s="397"/>
+      <c r="AM59" s="397"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
@@ -49546,40 +49623,40 @@
       <c r="A60" s="95"/>
       <c r="B60" s="134"/>
       <c r="C60" s="134"/>
-      <c r="D60" s="401"/>
-      <c r="E60" s="401"/>
-      <c r="F60" s="401"/>
-      <c r="G60" s="401"/>
-      <c r="H60" s="401"/>
-      <c r="I60" s="401"/>
-      <c r="J60" s="401"/>
-      <c r="K60" s="401"/>
-      <c r="L60" s="401"/>
-      <c r="M60" s="401"/>
-      <c r="N60" s="401"/>
-      <c r="O60" s="401"/>
-      <c r="P60" s="399"/>
-      <c r="Q60" s="400"/>
-      <c r="R60" s="399"/>
-      <c r="S60" s="400"/>
-      <c r="T60" s="399"/>
-      <c r="U60" s="400"/>
-      <c r="V60" s="399"/>
-      <c r="W60" s="400"/>
-      <c r="X60" s="399"/>
-      <c r="Y60" s="400"/>
-      <c r="Z60" s="399"/>
-      <c r="AA60" s="400"/>
-      <c r="AB60" s="399"/>
-      <c r="AC60" s="400"/>
-      <c r="AD60" s="399"/>
-      <c r="AE60" s="400"/>
-      <c r="AF60" s="399"/>
-      <c r="AG60" s="400"/>
-      <c r="AH60" s="399"/>
-      <c r="AI60" s="400"/>
-      <c r="AJ60" s="105"/>
-      <c r="AK60" s="115"/>
+      <c r="D60" s="407"/>
+      <c r="E60" s="407"/>
+      <c r="F60" s="407"/>
+      <c r="G60" s="407"/>
+      <c r="H60" s="407"/>
+      <c r="I60" s="407"/>
+      <c r="J60" s="407"/>
+      <c r="K60" s="407"/>
+      <c r="L60" s="407"/>
+      <c r="M60" s="407"/>
+      <c r="N60" s="407"/>
+      <c r="O60" s="407"/>
+      <c r="P60" s="405"/>
+      <c r="Q60" s="406"/>
+      <c r="R60" s="405"/>
+      <c r="S60" s="406"/>
+      <c r="T60" s="405"/>
+      <c r="U60" s="406"/>
+      <c r="V60" s="405"/>
+      <c r="W60" s="406"/>
+      <c r="X60" s="405"/>
+      <c r="Y60" s="406"/>
+      <c r="Z60" s="405"/>
+      <c r="AA60" s="406"/>
+      <c r="AB60" s="405"/>
+      <c r="AC60" s="406"/>
+      <c r="AD60" s="405"/>
+      <c r="AE60" s="406"/>
+      <c r="AF60" s="405"/>
+      <c r="AG60" s="406"/>
+      <c r="AH60" s="405"/>
+      <c r="AI60" s="406"/>
+      <c r="AJ60" s="335"/>
+      <c r="AK60" s="408"/>
       <c r="AL60" s="109"/>
       <c r="AM60" s="109"/>
     </row>
@@ -49619,8 +49696,8 @@
       <c r="AG61" s="87"/>
       <c r="AH61" s="86"/>
       <c r="AI61" s="87"/>
-      <c r="AJ61" s="105"/>
-      <c r="AK61" s="115"/>
+      <c r="AJ61" s="335"/>
+      <c r="AK61" s="408"/>
       <c r="AL61" s="109"/>
       <c r="AM61" s="109"/>
     </row>
@@ -49628,40 +49705,40 @@
       <c r="A62" s="134"/>
       <c r="B62" s="134"/>
       <c r="C62" s="134"/>
-      <c r="D62" s="402"/>
-      <c r="E62" s="402"/>
-      <c r="F62" s="402"/>
-      <c r="G62" s="402"/>
-      <c r="H62" s="402"/>
-      <c r="I62" s="402"/>
-      <c r="J62" s="402"/>
-      <c r="K62" s="402"/>
-      <c r="L62" s="402"/>
-      <c r="M62" s="402"/>
-      <c r="N62" s="402"/>
-      <c r="O62" s="402"/>
-      <c r="P62" s="329"/>
-      <c r="Q62" s="330"/>
-      <c r="R62" s="329"/>
-      <c r="S62" s="330"/>
-      <c r="T62" s="329"/>
-      <c r="U62" s="330"/>
-      <c r="V62" s="329"/>
-      <c r="W62" s="330"/>
-      <c r="X62" s="329"/>
-      <c r="Y62" s="330"/>
-      <c r="Z62" s="329"/>
-      <c r="AA62" s="330"/>
-      <c r="AB62" s="329"/>
-      <c r="AC62" s="330"/>
-      <c r="AD62" s="329"/>
-      <c r="AE62" s="330"/>
-      <c r="AF62" s="329"/>
-      <c r="AG62" s="330"/>
-      <c r="AH62" s="329"/>
-      <c r="AI62" s="330"/>
-      <c r="AJ62" s="105"/>
-      <c r="AK62" s="115"/>
+      <c r="D62" s="409"/>
+      <c r="E62" s="409"/>
+      <c r="F62" s="409"/>
+      <c r="G62" s="409"/>
+      <c r="H62" s="409"/>
+      <c r="I62" s="409"/>
+      <c r="J62" s="409"/>
+      <c r="K62" s="409"/>
+      <c r="L62" s="409"/>
+      <c r="M62" s="409"/>
+      <c r="N62" s="409"/>
+      <c r="O62" s="409"/>
+      <c r="P62" s="337"/>
+      <c r="Q62" s="338"/>
+      <c r="R62" s="337"/>
+      <c r="S62" s="338"/>
+      <c r="T62" s="337"/>
+      <c r="U62" s="338"/>
+      <c r="V62" s="337"/>
+      <c r="W62" s="338"/>
+      <c r="X62" s="337"/>
+      <c r="Y62" s="338"/>
+      <c r="Z62" s="337"/>
+      <c r="AA62" s="338"/>
+      <c r="AB62" s="337"/>
+      <c r="AC62" s="338"/>
+      <c r="AD62" s="337"/>
+      <c r="AE62" s="338"/>
+      <c r="AF62" s="337"/>
+      <c r="AG62" s="338"/>
+      <c r="AH62" s="337"/>
+      <c r="AI62" s="338"/>
+      <c r="AJ62" s="335"/>
+      <c r="AK62" s="408"/>
       <c r="AL62" s="109"/>
       <c r="AM62" s="109"/>
     </row>
@@ -49701,8 +49778,8 @@
       <c r="AG63" s="100"/>
       <c r="AH63" s="99"/>
       <c r="AI63" s="100"/>
-      <c r="AJ63" s="102"/>
-      <c r="AK63" s="121"/>
+      <c r="AJ63" s="410"/>
+      <c r="AK63" s="411"/>
       <c r="AL63" s="107"/>
       <c r="AM63" s="107"/>
     </row>
@@ -49742,8 +49819,8 @@
       <c r="AG64" s="87"/>
       <c r="AH64" s="86"/>
       <c r="AI64" s="87"/>
-      <c r="AJ64" s="105"/>
-      <c r="AK64" s="115"/>
+      <c r="AJ64" s="335"/>
+      <c r="AK64" s="408"/>
       <c r="AL64" s="109"/>
       <c r="AM64" s="109"/>
     </row>
@@ -49783,8 +49860,8 @@
       <c r="AG65" s="89"/>
       <c r="AH65" s="88"/>
       <c r="AI65" s="89"/>
-      <c r="AJ65" s="91"/>
-      <c r="AK65" s="118"/>
+      <c r="AJ65" s="412"/>
+      <c r="AK65" s="413"/>
       <c r="AL65" s="111"/>
       <c r="AM65" s="111"/>
     </row>
@@ -49792,40 +49869,40 @@
       <c r="A66" s="95"/>
       <c r="B66" s="134"/>
       <c r="C66" s="134"/>
-      <c r="D66" s="401"/>
-      <c r="E66" s="401"/>
-      <c r="F66" s="401"/>
-      <c r="G66" s="401"/>
-      <c r="H66" s="401"/>
-      <c r="I66" s="401"/>
-      <c r="J66" s="401"/>
-      <c r="K66" s="401"/>
-      <c r="L66" s="401"/>
-      <c r="M66" s="401"/>
-      <c r="N66" s="401"/>
-      <c r="O66" s="401"/>
-      <c r="P66" s="399"/>
-      <c r="Q66" s="400"/>
-      <c r="R66" s="399"/>
-      <c r="S66" s="400"/>
-      <c r="T66" s="399"/>
-      <c r="U66" s="400"/>
-      <c r="V66" s="399"/>
-      <c r="W66" s="400"/>
-      <c r="X66" s="399"/>
-      <c r="Y66" s="400"/>
-      <c r="Z66" s="399"/>
-      <c r="AA66" s="400"/>
-      <c r="AB66" s="399"/>
-      <c r="AC66" s="400"/>
-      <c r="AD66" s="399"/>
-      <c r="AE66" s="400"/>
-      <c r="AF66" s="399"/>
-      <c r="AG66" s="400"/>
-      <c r="AH66" s="399"/>
-      <c r="AI66" s="400"/>
-      <c r="AJ66" s="105"/>
-      <c r="AK66" s="115"/>
+      <c r="D66" s="407"/>
+      <c r="E66" s="407"/>
+      <c r="F66" s="407"/>
+      <c r="G66" s="407"/>
+      <c r="H66" s="407"/>
+      <c r="I66" s="407"/>
+      <c r="J66" s="407"/>
+      <c r="K66" s="407"/>
+      <c r="L66" s="407"/>
+      <c r="M66" s="407"/>
+      <c r="N66" s="407"/>
+      <c r="O66" s="407"/>
+      <c r="P66" s="405"/>
+      <c r="Q66" s="406"/>
+      <c r="R66" s="405"/>
+      <c r="S66" s="406"/>
+      <c r="T66" s="405"/>
+      <c r="U66" s="406"/>
+      <c r="V66" s="405"/>
+      <c r="W66" s="406"/>
+      <c r="X66" s="405"/>
+      <c r="Y66" s="406"/>
+      <c r="Z66" s="405"/>
+      <c r="AA66" s="406"/>
+      <c r="AB66" s="405"/>
+      <c r="AC66" s="406"/>
+      <c r="AD66" s="405"/>
+      <c r="AE66" s="406"/>
+      <c r="AF66" s="405"/>
+      <c r="AG66" s="406"/>
+      <c r="AH66" s="405"/>
+      <c r="AI66" s="406"/>
+      <c r="AJ66" s="335"/>
+      <c r="AK66" s="408"/>
       <c r="AL66" s="109"/>
       <c r="AM66" s="109"/>
     </row>
@@ -49865,8 +49942,8 @@
       <c r="AG67" s="87"/>
       <c r="AH67" s="86"/>
       <c r="AI67" s="87"/>
-      <c r="AJ67" s="105"/>
-      <c r="AK67" s="115"/>
+      <c r="AJ67" s="335"/>
+      <c r="AK67" s="408"/>
       <c r="AL67" s="109"/>
       <c r="AM67" s="109"/>
     </row>
@@ -49874,40 +49951,40 @@
       <c r="A68" s="134"/>
       <c r="B68" s="134"/>
       <c r="C68" s="134"/>
-      <c r="D68" s="402"/>
-      <c r="E68" s="402"/>
-      <c r="F68" s="402"/>
-      <c r="G68" s="402"/>
-      <c r="H68" s="402"/>
-      <c r="I68" s="402"/>
-      <c r="J68" s="402"/>
-      <c r="K68" s="402"/>
-      <c r="L68" s="402"/>
-      <c r="M68" s="402"/>
-      <c r="N68" s="402"/>
-      <c r="O68" s="402"/>
-      <c r="P68" s="329"/>
-      <c r="Q68" s="330"/>
-      <c r="R68" s="329"/>
-      <c r="S68" s="330"/>
-      <c r="T68" s="329"/>
-      <c r="U68" s="330"/>
-      <c r="V68" s="329"/>
-      <c r="W68" s="330"/>
-      <c r="X68" s="329"/>
-      <c r="Y68" s="330"/>
-      <c r="Z68" s="329"/>
-      <c r="AA68" s="330"/>
-      <c r="AB68" s="329"/>
-      <c r="AC68" s="330"/>
-      <c r="AD68" s="329"/>
-      <c r="AE68" s="330"/>
-      <c r="AF68" s="329"/>
-      <c r="AG68" s="330"/>
-      <c r="AH68" s="329"/>
-      <c r="AI68" s="330"/>
-      <c r="AJ68" s="105"/>
-      <c r="AK68" s="115"/>
+      <c r="D68" s="409"/>
+      <c r="E68" s="409"/>
+      <c r="F68" s="409"/>
+      <c r="G68" s="409"/>
+      <c r="H68" s="409"/>
+      <c r="I68" s="409"/>
+      <c r="J68" s="409"/>
+      <c r="K68" s="409"/>
+      <c r="L68" s="409"/>
+      <c r="M68" s="409"/>
+      <c r="N68" s="409"/>
+      <c r="O68" s="409"/>
+      <c r="P68" s="337"/>
+      <c r="Q68" s="338"/>
+      <c r="R68" s="337"/>
+      <c r="S68" s="338"/>
+      <c r="T68" s="337"/>
+      <c r="U68" s="338"/>
+      <c r="V68" s="337"/>
+      <c r="W68" s="338"/>
+      <c r="X68" s="337"/>
+      <c r="Y68" s="338"/>
+      <c r="Z68" s="337"/>
+      <c r="AA68" s="338"/>
+      <c r="AB68" s="337"/>
+      <c r="AC68" s="338"/>
+      <c r="AD68" s="337"/>
+      <c r="AE68" s="338"/>
+      <c r="AF68" s="337"/>
+      <c r="AG68" s="338"/>
+      <c r="AH68" s="337"/>
+      <c r="AI68" s="338"/>
+      <c r="AJ68" s="335"/>
+      <c r="AK68" s="408"/>
       <c r="AL68" s="109"/>
       <c r="AM68" s="109"/>
     </row>
@@ -49947,8 +50024,8 @@
       <c r="AG69" s="100"/>
       <c r="AH69" s="99"/>
       <c r="AI69" s="100"/>
-      <c r="AJ69" s="102"/>
-      <c r="AK69" s="121"/>
+      <c r="AJ69" s="410"/>
+      <c r="AK69" s="411"/>
       <c r="AL69" s="107"/>
       <c r="AM69" s="107"/>
     </row>
@@ -49988,8 +50065,8 @@
       <c r="AG70" s="87"/>
       <c r="AH70" s="86"/>
       <c r="AI70" s="87"/>
-      <c r="AJ70" s="105"/>
-      <c r="AK70" s="115"/>
+      <c r="AJ70" s="335"/>
+      <c r="AK70" s="408"/>
       <c r="AL70" s="109"/>
       <c r="AM70" s="109"/>
     </row>
@@ -50029,8 +50106,8 @@
       <c r="AG71" s="89"/>
       <c r="AH71" s="88"/>
       <c r="AI71" s="89"/>
-      <c r="AJ71" s="91"/>
-      <c r="AK71" s="118"/>
+      <c r="AJ71" s="412"/>
+      <c r="AK71" s="413"/>
       <c r="AL71" s="111"/>
       <c r="AM71" s="111"/>
     </row>
@@ -50038,40 +50115,40 @@
       <c r="A72" s="95"/>
       <c r="B72" s="95"/>
       <c r="C72" s="96"/>
-      <c r="D72" s="401"/>
-      <c r="E72" s="401"/>
-      <c r="F72" s="401"/>
-      <c r="G72" s="401"/>
-      <c r="H72" s="401"/>
-      <c r="I72" s="401"/>
-      <c r="J72" s="401"/>
-      <c r="K72" s="401"/>
-      <c r="L72" s="401"/>
-      <c r="M72" s="401"/>
-      <c r="N72" s="401"/>
-      <c r="O72" s="401"/>
-      <c r="P72" s="399"/>
-      <c r="Q72" s="400"/>
-      <c r="R72" s="399"/>
-      <c r="S72" s="400"/>
-      <c r="T72" s="399"/>
-      <c r="U72" s="400"/>
-      <c r="V72" s="399"/>
-      <c r="W72" s="400"/>
-      <c r="X72" s="399"/>
-      <c r="Y72" s="400"/>
-      <c r="Z72" s="399"/>
-      <c r="AA72" s="400"/>
-      <c r="AB72" s="399"/>
-      <c r="AC72" s="400"/>
-      <c r="AD72" s="399"/>
-      <c r="AE72" s="400"/>
-      <c r="AF72" s="399"/>
-      <c r="AG72" s="400"/>
-      <c r="AH72" s="399"/>
-      <c r="AI72" s="400"/>
-      <c r="AJ72" s="105"/>
-      <c r="AK72" s="115"/>
+      <c r="D72" s="407"/>
+      <c r="E72" s="407"/>
+      <c r="F72" s="407"/>
+      <c r="G72" s="407"/>
+      <c r="H72" s="407"/>
+      <c r="I72" s="407"/>
+      <c r="J72" s="407"/>
+      <c r="K72" s="407"/>
+      <c r="L72" s="407"/>
+      <c r="M72" s="407"/>
+      <c r="N72" s="407"/>
+      <c r="O72" s="407"/>
+      <c r="P72" s="405"/>
+      <c r="Q72" s="406"/>
+      <c r="R72" s="405"/>
+      <c r="S72" s="406"/>
+      <c r="T72" s="405"/>
+      <c r="U72" s="406"/>
+      <c r="V72" s="405"/>
+      <c r="W72" s="406"/>
+      <c r="X72" s="405"/>
+      <c r="Y72" s="406"/>
+      <c r="Z72" s="405"/>
+      <c r="AA72" s="406"/>
+      <c r="AB72" s="405"/>
+      <c r="AC72" s="406"/>
+      <c r="AD72" s="405"/>
+      <c r="AE72" s="406"/>
+      <c r="AF72" s="405"/>
+      <c r="AG72" s="406"/>
+      <c r="AH72" s="405"/>
+      <c r="AI72" s="406"/>
+      <c r="AJ72" s="335"/>
+      <c r="AK72" s="408"/>
       <c r="AL72" s="109"/>
       <c r="AM72" s="109"/>
     </row>
@@ -50111,92 +50188,92 @@
       <c r="AG73" s="87"/>
       <c r="AH73" s="86"/>
       <c r="AI73" s="87"/>
-      <c r="AJ73" s="105"/>
-      <c r="AK73" s="115"/>
+      <c r="AJ73" s="335"/>
+      <c r="AK73" s="408"/>
       <c r="AL73" s="109"/>
       <c r="AM73" s="109"/>
     </row>
     <row r="74" spans="1:42" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A74" s="403"/>
-      <c r="B74" s="403"/>
-      <c r="C74" s="404"/>
-      <c r="D74" s="413"/>
-      <c r="E74" s="413"/>
-      <c r="F74" s="413"/>
-      <c r="G74" s="413"/>
-      <c r="H74" s="413"/>
-      <c r="I74" s="413"/>
-      <c r="J74" s="413"/>
-      <c r="K74" s="413"/>
-      <c r="L74" s="413"/>
-      <c r="M74" s="413"/>
-      <c r="N74" s="413"/>
-      <c r="O74" s="413"/>
-      <c r="P74" s="405"/>
-      <c r="Q74" s="406"/>
-      <c r="R74" s="405"/>
-      <c r="S74" s="406"/>
-      <c r="T74" s="405"/>
-      <c r="U74" s="406"/>
-      <c r="V74" s="405"/>
-      <c r="W74" s="406"/>
-      <c r="X74" s="405"/>
-      <c r="Y74" s="406"/>
-      <c r="Z74" s="405"/>
-      <c r="AA74" s="406"/>
-      <c r="AB74" s="405"/>
-      <c r="AC74" s="406"/>
-      <c r="AD74" s="405"/>
-      <c r="AE74" s="406"/>
-      <c r="AF74" s="405"/>
-      <c r="AG74" s="406"/>
-      <c r="AH74" s="405"/>
-      <c r="AI74" s="406"/>
-      <c r="AJ74" s="407"/>
-      <c r="AK74" s="408"/>
-      <c r="AL74" s="409"/>
-      <c r="AM74" s="409"/>
+      <c r="A74" s="414"/>
+      <c r="B74" s="414"/>
+      <c r="C74" s="415"/>
+      <c r="D74" s="435"/>
+      <c r="E74" s="435"/>
+      <c r="F74" s="435"/>
+      <c r="G74" s="435"/>
+      <c r="H74" s="435"/>
+      <c r="I74" s="435"/>
+      <c r="J74" s="435"/>
+      <c r="K74" s="435"/>
+      <c r="L74" s="435"/>
+      <c r="M74" s="435"/>
+      <c r="N74" s="435"/>
+      <c r="O74" s="435"/>
+      <c r="P74" s="418"/>
+      <c r="Q74" s="419"/>
+      <c r="R74" s="418"/>
+      <c r="S74" s="419"/>
+      <c r="T74" s="418"/>
+      <c r="U74" s="419"/>
+      <c r="V74" s="418"/>
+      <c r="W74" s="419"/>
+      <c r="X74" s="418"/>
+      <c r="Y74" s="419"/>
+      <c r="Z74" s="418"/>
+      <c r="AA74" s="419"/>
+      <c r="AB74" s="418"/>
+      <c r="AC74" s="419"/>
+      <c r="AD74" s="418"/>
+      <c r="AE74" s="419"/>
+      <c r="AF74" s="418"/>
+      <c r="AG74" s="419"/>
+      <c r="AH74" s="418"/>
+      <c r="AI74" s="419"/>
+      <c r="AJ74" s="420"/>
+      <c r="AK74" s="421"/>
+      <c r="AL74" s="422"/>
+      <c r="AM74" s="422"/>
     </row>
     <row r="75" spans="1:42" ht="9.75" customHeight="1" thickTop="1">
-      <c r="A75" s="410"/>
-      <c r="B75" s="410"/>
-      <c r="C75" s="411"/>
-      <c r="D75" s="412"/>
-      <c r="E75" s="412"/>
-      <c r="F75" s="412"/>
-      <c r="G75" s="412"/>
-      <c r="H75" s="412"/>
-      <c r="I75" s="412"/>
-      <c r="J75" s="412"/>
-      <c r="K75" s="412"/>
-      <c r="L75" s="412"/>
-      <c r="M75" s="412"/>
-      <c r="N75" s="412"/>
-      <c r="O75" s="412"/>
-      <c r="P75" s="414"/>
-      <c r="Q75" s="415"/>
-      <c r="R75" s="414"/>
-      <c r="S75" s="415"/>
-      <c r="T75" s="414"/>
-      <c r="U75" s="415"/>
-      <c r="V75" s="414"/>
-      <c r="W75" s="415"/>
-      <c r="X75" s="414"/>
-      <c r="Y75" s="415"/>
-      <c r="Z75" s="414"/>
-      <c r="AA75" s="415"/>
-      <c r="AB75" s="414"/>
-      <c r="AC75" s="415"/>
-      <c r="AD75" s="414"/>
-      <c r="AE75" s="415"/>
-      <c r="AF75" s="414"/>
-      <c r="AG75" s="415"/>
-      <c r="AH75" s="414"/>
-      <c r="AI75" s="415"/>
-      <c r="AJ75" s="422"/>
-      <c r="AK75" s="423"/>
-      <c r="AL75" s="424"/>
-      <c r="AM75" s="424"/>
+      <c r="A75" s="429"/>
+      <c r="B75" s="429"/>
+      <c r="C75" s="430"/>
+      <c r="D75" s="431"/>
+      <c r="E75" s="431"/>
+      <c r="F75" s="431"/>
+      <c r="G75" s="431"/>
+      <c r="H75" s="431"/>
+      <c r="I75" s="431"/>
+      <c r="J75" s="431"/>
+      <c r="K75" s="431"/>
+      <c r="L75" s="431"/>
+      <c r="M75" s="431"/>
+      <c r="N75" s="431"/>
+      <c r="O75" s="431"/>
+      <c r="P75" s="416"/>
+      <c r="Q75" s="417"/>
+      <c r="R75" s="416"/>
+      <c r="S75" s="417"/>
+      <c r="T75" s="416"/>
+      <c r="U75" s="417"/>
+      <c r="V75" s="416"/>
+      <c r="W75" s="417"/>
+      <c r="X75" s="416"/>
+      <c r="Y75" s="417"/>
+      <c r="Z75" s="416"/>
+      <c r="AA75" s="417"/>
+      <c r="AB75" s="416"/>
+      <c r="AC75" s="417"/>
+      <c r="AD75" s="416"/>
+      <c r="AE75" s="417"/>
+      <c r="AF75" s="416"/>
+      <c r="AG75" s="417"/>
+      <c r="AH75" s="416"/>
+      <c r="AI75" s="417"/>
+      <c r="AJ75" s="432"/>
+      <c r="AK75" s="433"/>
+      <c r="AL75" s="434"/>
+      <c r="AM75" s="434"/>
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
       <c r="AP75" s="3"/>
@@ -50237,8 +50314,8 @@
       <c r="AG76" s="87"/>
       <c r="AH76" s="86"/>
       <c r="AI76" s="87"/>
-      <c r="AJ76" s="105"/>
-      <c r="AK76" s="115"/>
+      <c r="AJ76" s="335"/>
+      <c r="AK76" s="408"/>
       <c r="AL76" s="109"/>
       <c r="AM76" s="109"/>
       <c r="AN76" s="3"/>
@@ -50281,8 +50358,8 @@
       <c r="AG77" s="89"/>
       <c r="AH77" s="88"/>
       <c r="AI77" s="89"/>
-      <c r="AJ77" s="91"/>
-      <c r="AK77" s="118"/>
+      <c r="AJ77" s="412"/>
+      <c r="AK77" s="413"/>
       <c r="AL77" s="111"/>
       <c r="AM77" s="111"/>
       <c r="AN77" s="3"/>
@@ -50291,16 +50368,6 @@
     </row>
   </sheetData>
   <mergeCells count="1162">
-    <mergeCell ref="AB76:AC76"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AJ75:AM75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A44:B46"/>
-    <mergeCell ref="C44:C46"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="A54:B56"/>
@@ -50315,8 +50382,32 @@
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="T75:U75"/>
     <mergeCell ref="V75:W75"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:C77"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="AB76:AC76"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AJ75:AM75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
     <mergeCell ref="AF77:AG77"/>
     <mergeCell ref="AH77:AI77"/>
     <mergeCell ref="AJ77:AM77"/>
@@ -50337,24 +50428,6 @@
     <mergeCell ref="P77:Q77"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="V76:W76"/>
-    <mergeCell ref="A75:C77"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="R76:S76"/>
@@ -50737,6 +50810,8 @@
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
     <mergeCell ref="AB51:AC51"/>
     <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="AF51:AG51"/>
@@ -50754,6 +50829,20 @@
     <mergeCell ref="AF49:AG49"/>
     <mergeCell ref="AH49:AI49"/>
     <mergeCell ref="AJ49:AM49"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
     <mergeCell ref="A50:C52"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G50"/>
@@ -50772,29 +50861,6 @@
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="AJ46:AM46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:I47"/>
@@ -50822,14 +50888,11 @@
     <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="AH47:AI47"/>
     <mergeCell ref="AJ47:AM47"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="L47:M47"/>
@@ -50839,6 +50902,14 @@
     <mergeCell ref="T47:U47"/>
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="AJ46:AM46"/>
     <mergeCell ref="AF44:AG44"/>
     <mergeCell ref="AH44:AI44"/>
     <mergeCell ref="AJ44:AM44"/>
@@ -50860,15 +50931,17 @@
     <mergeCell ref="AF45:AG45"/>
     <mergeCell ref="AH45:AI45"/>
     <mergeCell ref="AJ45:AM45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="T45:U45"/>
     <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="P41:Q41"/>
@@ -50886,6 +50959,8 @@
     <mergeCell ref="Z44:AA44"/>
     <mergeCell ref="AB44:AC44"/>
     <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A44:B46"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="AJ40:AM40"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="P40:Q40"/>
@@ -51143,6 +51218,11 @@
     <mergeCell ref="AD28:AE28"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
@@ -51160,6 +51240,11 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AM23"/>
     <mergeCell ref="A24:C26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
@@ -51187,11 +51272,16 @@
     <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="AD25:AE25"/>
     <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="AH22:AI22"/>
@@ -51214,40 +51304,6 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AF19:AG19"/>
     <mergeCell ref="AH19:AI19"/>
@@ -51263,17 +51319,18 @@
     <mergeCell ref="AF18:AG18"/>
     <mergeCell ref="AH18:AI18"/>
     <mergeCell ref="AJ18:AM18"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
     <mergeCell ref="A17:C19"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
@@ -51295,10 +51352,16 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="AD14:AE14"/>
     <mergeCell ref="AF14:AG14"/>
     <mergeCell ref="J14:K14"/>
@@ -51312,7 +51375,17 @@
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AM16"/>
     <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="AH13:AI13"/>
@@ -51344,6 +51417,7 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="AJ11:AM11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
@@ -51425,8 +51499,20 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="A14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A3:B8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:I8"/>
@@ -51444,15 +51530,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
@@ -52143,6 +52220,13 @@
     <mergeCell ref="T3:U4"/>
     <mergeCell ref="V3:W4"/>
     <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AH7:AI8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="X3:Y4"/>
     <mergeCell ref="Z3:AA4"/>
@@ -52164,8 +52248,6 @@
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="R7:S8"/>
     <mergeCell ref="T7:U8"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="AH3:AI4"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="H5:I6"/>
@@ -52176,11 +52258,6 @@
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="T5:U6"/>
     <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AH7:AI8"/>
     <mergeCell ref="X7:Y8"/>
     <mergeCell ref="Z7:AA8"/>
     <mergeCell ref="AB7:AC8"/>
@@ -52384,6 +52461,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="AJ3:AM4"/>
     <mergeCell ref="AH3:AI4"/>
     <mergeCell ref="D3:E4"/>
@@ -52396,14 +52481,6 @@
     <mergeCell ref="AB3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
@@ -52699,7 +52776,6 @@
     <mergeCell ref="Z3:AA4"/>
     <mergeCell ref="AH5:AI6"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AH3:AI4"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="C3:C6"/>
@@ -52719,6 +52795,7 @@
     <mergeCell ref="N5:O6"/>
     <mergeCell ref="P5:Q6"/>
     <mergeCell ref="AB3:AC4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
@@ -53150,7 +53227,7 @@
   <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B13"/>
+      <selection activeCell="AJ11" sqref="AJ11:AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -54826,8 +54903,8 @@
   </sheetPr>
   <dimension ref="A1:AM74"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A52" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15:AE15"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31:AM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -54854,32 +54931,32 @@
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="307" t="s">
+      <c r="O1" s="310"/>
+      <c r="P1" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
-      <c r="S1" s="309"/>
-      <c r="T1" s="309"/>
-      <c r="U1" s="309"/>
-      <c r="V1" s="309"/>
-      <c r="W1" s="309"/>
-      <c r="X1" s="309"/>
-      <c r="Y1" s="309"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="309"/>
-      <c r="AB1" s="309"/>
-      <c r="AC1" s="309"/>
-      <c r="AD1" s="309"/>
-      <c r="AE1" s="309"/>
-      <c r="AF1" s="309"/>
-      <c r="AG1" s="309"/>
-      <c r="AH1" s="309"/>
-      <c r="AI1" s="309"/>
-      <c r="AJ1" s="309"/>
-      <c r="AK1" s="309"/>
-      <c r="AL1" s="310"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313"/>
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="313"/>
+      <c r="AA1" s="313"/>
+      <c r="AB1" s="313"/>
+      <c r="AC1" s="313"/>
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="313"/>
+      <c r="AG1" s="313"/>
+      <c r="AH1" s="313"/>
+      <c r="AI1" s="313"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="314"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -54898,31 +54975,31 @@
       <c r="M2" s="77"/>
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
-      <c r="P2" s="311" t="s">
+      <c r="P2" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
-      <c r="AC2" s="313"/>
-      <c r="AD2" s="313"/>
-      <c r="AE2" s="313"/>
-      <c r="AF2" s="313"/>
-      <c r="AG2" s="313"/>
-      <c r="AH2" s="313"/>
-      <c r="AI2" s="313"/>
-      <c r="AJ2" s="313"/>
-      <c r="AK2" s="313"/>
-      <c r="AL2" s="314"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="317"/>
+      <c r="V2" s="317"/>
+      <c r="W2" s="317"/>
+      <c r="X2" s="317"/>
+      <c r="Y2" s="317"/>
+      <c r="Z2" s="317"/>
+      <c r="AA2" s="317"/>
+      <c r="AB2" s="317"/>
+      <c r="AC2" s="317"/>
+      <c r="AD2" s="317"/>
+      <c r="AE2" s="317"/>
+      <c r="AF2" s="317"/>
+      <c r="AG2" s="317"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="317"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="318"/>
       <c r="AM2" s="19"/>
     </row>
     <row r="3" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -55509,30 +55586,30 @@
       <c r="G17" s="227"/>
       <c r="H17" s="227"/>
       <c r="I17" s="227"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
+      <c r="J17" s="303"/>
+      <c r="K17" s="303"/>
       <c r="L17" s="227"/>
       <c r="M17" s="227"/>
       <c r="N17" s="227"/>
       <c r="O17" s="227"/>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="299"/>
-      <c r="S17" s="299"/>
-      <c r="T17" s="299"/>
-      <c r="U17" s="299"/>
-      <c r="V17" s="299"/>
-      <c r="W17" s="299"/>
-      <c r="X17" s="299"/>
-      <c r="Y17" s="299"/>
-      <c r="Z17" s="299"/>
-      <c r="AA17" s="299"/>
-      <c r="AB17" s="299"/>
-      <c r="AC17" s="299"/>
-      <c r="AD17" s="299"/>
-      <c r="AE17" s="299"/>
-      <c r="AF17" s="299"/>
-      <c r="AG17" s="299"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="303"/>
+      <c r="S17" s="303"/>
+      <c r="T17" s="303"/>
+      <c r="U17" s="303"/>
+      <c r="V17" s="303"/>
+      <c r="W17" s="303"/>
+      <c r="X17" s="303"/>
+      <c r="Y17" s="303"/>
+      <c r="Z17" s="303"/>
+      <c r="AA17" s="303"/>
+      <c r="AB17" s="303"/>
+      <c r="AC17" s="303"/>
+      <c r="AD17" s="303"/>
+      <c r="AE17" s="303"/>
+      <c r="AF17" s="303"/>
+      <c r="AG17" s="303"/>
       <c r="AH17" s="227"/>
       <c r="AI17" s="227"/>
       <c r="AJ17" s="245"/>
@@ -55544,38 +55621,38 @@
       <c r="A18" s="255"/>
       <c r="B18" s="241"/>
       <c r="C18" s="242"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
-      <c r="K18" s="305"/>
-      <c r="L18" s="305"/>
-      <c r="M18" s="305"/>
-      <c r="N18" s="305"/>
-      <c r="O18" s="305"/>
-      <c r="P18" s="305"/>
-      <c r="Q18" s="305"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
-      <c r="U18" s="305"/>
-      <c r="V18" s="305"/>
-      <c r="W18" s="305"/>
-      <c r="X18" s="305"/>
-      <c r="Y18" s="305"/>
-      <c r="Z18" s="305"/>
-      <c r="AA18" s="305"/>
-      <c r="AB18" s="305"/>
-      <c r="AC18" s="305"/>
-      <c r="AD18" s="305"/>
-      <c r="AE18" s="305"/>
-      <c r="AF18" s="305"/>
-      <c r="AG18" s="305"/>
-      <c r="AH18" s="305"/>
-      <c r="AI18" s="305"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="309"/>
+      <c r="P18" s="309"/>
+      <c r="Q18" s="309"/>
+      <c r="R18" s="309"/>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="309"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="309"/>
+      <c r="Y18" s="309"/>
+      <c r="Z18" s="309"/>
+      <c r="AA18" s="309"/>
+      <c r="AB18" s="309"/>
+      <c r="AC18" s="309"/>
+      <c r="AD18" s="309"/>
+      <c r="AE18" s="309"/>
+      <c r="AF18" s="309"/>
+      <c r="AG18" s="309"/>
+      <c r="AH18" s="309"/>
+      <c r="AI18" s="309"/>
       <c r="AJ18" s="247"/>
       <c r="AK18" s="248"/>
       <c r="AL18" s="248"/>
@@ -55615,8 +55692,8 @@
       <c r="AE19" s="252"/>
       <c r="AF19" s="251"/>
       <c r="AG19" s="252"/>
-      <c r="AH19" s="300"/>
-      <c r="AI19" s="301"/>
+      <c r="AH19" s="304"/>
+      <c r="AI19" s="305"/>
       <c r="AJ19" s="247"/>
       <c r="AK19" s="248"/>
       <c r="AL19" s="248"/>
@@ -55664,27 +55741,27 @@
       <c r="AM20" s="5"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1">
-      <c r="A21" s="302"/>
+      <c r="A21" s="306"/>
       <c r="B21" s="243"/>
       <c r="C21" s="243"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="303"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="303"/>
-      <c r="I21" s="303"/>
-      <c r="J21" s="302"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="304"/>
-      <c r="M21" s="304"/>
-      <c r="N21" s="304"/>
-      <c r="O21" s="304"/>
-      <c r="P21" s="302"/>
-      <c r="Q21" s="303"/>
-      <c r="R21" s="304"/>
-      <c r="S21" s="304"/>
-      <c r="T21" s="304"/>
-      <c r="U21" s="304"/>
+      <c r="D21" s="307"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
+      <c r="I21" s="307"/>
+      <c r="J21" s="306"/>
+      <c r="K21" s="307"/>
+      <c r="L21" s="308"/>
+      <c r="M21" s="308"/>
+      <c r="N21" s="308"/>
+      <c r="O21" s="308"/>
+      <c r="P21" s="306"/>
+      <c r="Q21" s="307"/>
+      <c r="R21" s="308"/>
+      <c r="S21" s="308"/>
+      <c r="T21" s="308"/>
+      <c r="U21" s="308"/>
       <c r="V21" s="24"/>
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
@@ -55986,10 +56063,10 @@
       <c r="AG28" s="261"/>
       <c r="AH28" s="235"/>
       <c r="AI28" s="235"/>
-      <c r="AJ28" s="236"/>
-      <c r="AK28" s="237"/>
-      <c r="AL28" s="237"/>
-      <c r="AM28" s="237"/>
+      <c r="AJ28" s="301"/>
+      <c r="AK28" s="302"/>
+      <c r="AL28" s="302"/>
+      <c r="AM28" s="302"/>
     </row>
     <row r="29" spans="1:39" ht="15" customHeight="1">
       <c r="A29" s="243"/>
@@ -56005,32 +56082,32 @@
       <c r="K29" s="227"/>
       <c r="L29" s="227"/>
       <c r="M29" s="227"/>
-      <c r="N29" s="299"/>
-      <c r="O29" s="299"/>
-      <c r="P29" s="299"/>
-      <c r="Q29" s="299"/>
-      <c r="R29" s="299"/>
-      <c r="S29" s="299"/>
-      <c r="T29" s="299"/>
-      <c r="U29" s="299"/>
-      <c r="V29" s="299"/>
-      <c r="W29" s="299"/>
-      <c r="X29" s="299"/>
-      <c r="Y29" s="299"/>
-      <c r="Z29" s="299"/>
-      <c r="AA29" s="299"/>
-      <c r="AB29" s="299"/>
-      <c r="AC29" s="299"/>
-      <c r="AD29" s="299"/>
-      <c r="AE29" s="299"/>
-      <c r="AF29" s="299"/>
-      <c r="AG29" s="299"/>
+      <c r="N29" s="303"/>
+      <c r="O29" s="303"/>
+      <c r="P29" s="303"/>
+      <c r="Q29" s="303"/>
+      <c r="R29" s="303"/>
+      <c r="S29" s="303"/>
+      <c r="T29" s="303"/>
+      <c r="U29" s="303"/>
+      <c r="V29" s="303"/>
+      <c r="W29" s="303"/>
+      <c r="X29" s="303"/>
+      <c r="Y29" s="303"/>
+      <c r="Z29" s="303"/>
+      <c r="AA29" s="303"/>
+      <c r="AB29" s="303"/>
+      <c r="AC29" s="303"/>
+      <c r="AD29" s="303"/>
+      <c r="AE29" s="303"/>
+      <c r="AF29" s="303"/>
+      <c r="AG29" s="303"/>
       <c r="AH29" s="227"/>
       <c r="AI29" s="227"/>
-      <c r="AJ29" s="245"/>
-      <c r="AK29" s="246"/>
-      <c r="AL29" s="246"/>
-      <c r="AM29" s="246"/>
+      <c r="AJ29" s="298"/>
+      <c r="AK29" s="299"/>
+      <c r="AL29" s="299"/>
+      <c r="AM29" s="299"/>
     </row>
     <row r="30" spans="1:39" ht="15" customHeight="1">
       <c r="A30" s="238"/>
@@ -56068,10 +56145,10 @@
       <c r="AG30" s="258"/>
       <c r="AH30" s="258"/>
       <c r="AI30" s="258"/>
-      <c r="AJ30" s="236"/>
-      <c r="AK30" s="237"/>
-      <c r="AL30" s="237"/>
-      <c r="AM30" s="237"/>
+      <c r="AJ30" s="301"/>
+      <c r="AK30" s="302"/>
+      <c r="AL30" s="302"/>
+      <c r="AM30" s="302"/>
     </row>
     <row r="31" spans="1:39" ht="15" customHeight="1">
       <c r="A31" s="243"/>
@@ -56109,15 +56186,15 @@
       <c r="AG31" s="229"/>
       <c r="AH31" s="256"/>
       <c r="AI31" s="257"/>
-      <c r="AJ31" s="245"/>
-      <c r="AK31" s="246"/>
-      <c r="AL31" s="246"/>
-      <c r="AM31" s="246"/>
+      <c r="AJ31" s="298"/>
+      <c r="AK31" s="299"/>
+      <c r="AL31" s="299"/>
+      <c r="AM31" s="299"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1">
       <c r="A32" s="255"/>
       <c r="B32" s="255"/>
-      <c r="C32" s="298"/>
+      <c r="C32" s="300"/>
       <c r="D32" s="296"/>
       <c r="E32" s="297"/>
       <c r="F32" s="296"/>
@@ -56158,7 +56235,7 @@
     <row r="33" spans="1:39" ht="15" customHeight="1">
       <c r="A33" s="255"/>
       <c r="B33" s="255"/>
-      <c r="C33" s="298"/>
+      <c r="C33" s="300"/>
       <c r="D33" s="288"/>
       <c r="E33" s="289"/>
       <c r="F33" s="288"/>
@@ -58632,8 +58709,8 @@
   </sheetPr>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8:AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -58660,32 +58737,32 @@
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="307" t="s">
+      <c r="O1" s="310"/>
+      <c r="P1" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
-      <c r="S1" s="309"/>
-      <c r="T1" s="309"/>
-      <c r="U1" s="309"/>
-      <c r="V1" s="309"/>
-      <c r="W1" s="309"/>
-      <c r="X1" s="309"/>
-      <c r="Y1" s="309"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="309"/>
-      <c r="AB1" s="309"/>
-      <c r="AC1" s="309"/>
-      <c r="AD1" s="309"/>
-      <c r="AE1" s="309"/>
-      <c r="AF1" s="309"/>
-      <c r="AG1" s="309"/>
-      <c r="AH1" s="309"/>
-      <c r="AI1" s="309"/>
-      <c r="AJ1" s="309"/>
-      <c r="AK1" s="309"/>
-      <c r="AL1" s="310"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313"/>
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="313"/>
+      <c r="AA1" s="313"/>
+      <c r="AB1" s="313"/>
+      <c r="AC1" s="313"/>
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="313"/>
+      <c r="AG1" s="313"/>
+      <c r="AH1" s="313"/>
+      <c r="AI1" s="313"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="314"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -58704,31 +58781,31 @@
       <c r="M2" s="77"/>
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
-      <c r="P2" s="311" t="s">
+      <c r="P2" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
-      <c r="AC2" s="313"/>
-      <c r="AD2" s="313"/>
-      <c r="AE2" s="313"/>
-      <c r="AF2" s="313"/>
-      <c r="AG2" s="313"/>
-      <c r="AH2" s="313"/>
-      <c r="AI2" s="313"/>
-      <c r="AJ2" s="313"/>
-      <c r="AK2" s="313"/>
-      <c r="AL2" s="314"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="317"/>
+      <c r="V2" s="317"/>
+      <c r="W2" s="317"/>
+      <c r="X2" s="317"/>
+      <c r="Y2" s="317"/>
+      <c r="Z2" s="317"/>
+      <c r="AA2" s="317"/>
+      <c r="AB2" s="317"/>
+      <c r="AC2" s="317"/>
+      <c r="AD2" s="317"/>
+      <c r="AE2" s="317"/>
+      <c r="AF2" s="317"/>
+      <c r="AG2" s="317"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="317"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="318"/>
       <c r="AM2" s="19"/>
     </row>
     <row r="3" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -58937,8 +59014,8 @@
       <c r="AM7" s="44"/>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1">
-      <c r="A8" s="315"/>
-      <c r="B8" s="316"/>
+      <c r="A8" s="319"/>
+      <c r="B8" s="320"/>
       <c r="C8" s="48"/>
       <c r="D8" s="130"/>
       <c r="E8" s="131"/>
@@ -58978,8 +59055,8 @@
       <c r="AM8" s="145"/>
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1">
-      <c r="A9" s="317"/>
-      <c r="B9" s="318"/>
+      <c r="A9" s="321"/>
+      <c r="B9" s="322"/>
       <c r="C9" s="47"/>
       <c r="D9" s="177"/>
       <c r="E9" s="177"/>
@@ -59019,171 +59096,171 @@
       <c r="AM9" s="166"/>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1">
-      <c r="A10" s="315"/>
-      <c r="B10" s="316"/>
+      <c r="A10" s="319"/>
+      <c r="B10" s="320"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="338"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="338"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="338"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="336"/>
-      <c r="K10" s="337"/>
-      <c r="L10" s="338"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="337"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="337"/>
-      <c r="R10" s="336"/>
-      <c r="S10" s="337"/>
-      <c r="T10" s="336"/>
-      <c r="U10" s="337"/>
-      <c r="V10" s="336"/>
-      <c r="W10" s="337"/>
-      <c r="X10" s="336"/>
-      <c r="Y10" s="337"/>
-      <c r="Z10" s="336"/>
-      <c r="AA10" s="337"/>
-      <c r="AB10" s="336"/>
-      <c r="AC10" s="337"/>
-      <c r="AD10" s="336"/>
-      <c r="AE10" s="337"/>
-      <c r="AF10" s="336"/>
-      <c r="AG10" s="337"/>
-      <c r="AH10" s="338"/>
-      <c r="AI10" s="339"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="346"/>
+      <c r="G10" s="347"/>
+      <c r="H10" s="346"/>
+      <c r="I10" s="347"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="345"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="344"/>
+      <c r="O10" s="345"/>
+      <c r="P10" s="344"/>
+      <c r="Q10" s="345"/>
+      <c r="R10" s="344"/>
+      <c r="S10" s="345"/>
+      <c r="T10" s="344"/>
+      <c r="U10" s="345"/>
+      <c r="V10" s="344"/>
+      <c r="W10" s="345"/>
+      <c r="X10" s="344"/>
+      <c r="Y10" s="345"/>
+      <c r="Z10" s="344"/>
+      <c r="AA10" s="345"/>
+      <c r="AB10" s="344"/>
+      <c r="AC10" s="345"/>
+      <c r="AD10" s="344"/>
+      <c r="AE10" s="345"/>
+      <c r="AF10" s="344"/>
+      <c r="AG10" s="345"/>
+      <c r="AH10" s="346"/>
+      <c r="AI10" s="347"/>
       <c r="AJ10" s="144"/>
       <c r="AK10" s="145"/>
       <c r="AL10" s="145"/>
       <c r="AM10" s="145"/>
     </row>
     <row r="11" spans="1:39" ht="15" customHeight="1">
-      <c r="A11" s="340"/>
+      <c r="A11" s="323"/>
       <c r="B11" s="195"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="331"/>
-      <c r="E11" s="331"/>
-      <c r="F11" s="331"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="331"/>
-      <c r="I11" s="331"/>
-      <c r="J11" s="332"/>
-      <c r="K11" s="332"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="332"/>
-      <c r="Q11" s="332"/>
-      <c r="R11" s="332"/>
-      <c r="S11" s="332"/>
-      <c r="T11" s="332"/>
-      <c r="U11" s="332"/>
-      <c r="V11" s="332"/>
-      <c r="W11" s="332"/>
-      <c r="X11" s="332"/>
-      <c r="Y11" s="332"/>
-      <c r="Z11" s="332"/>
-      <c r="AA11" s="332"/>
-      <c r="AB11" s="332"/>
-      <c r="AC11" s="332"/>
-      <c r="AD11" s="332"/>
-      <c r="AE11" s="332"/>
-      <c r="AF11" s="332"/>
-      <c r="AG11" s="332"/>
-      <c r="AH11" s="331"/>
-      <c r="AI11" s="331"/>
-      <c r="AJ11" s="342"/>
-      <c r="AK11" s="343"/>
-      <c r="AL11" s="343"/>
-      <c r="AM11" s="343"/>
+      <c r="C11" s="348"/>
+      <c r="D11" s="339"/>
+      <c r="E11" s="339"/>
+      <c r="F11" s="339"/>
+      <c r="G11" s="339"/>
+      <c r="H11" s="339"/>
+      <c r="I11" s="339"/>
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="340"/>
+      <c r="S11" s="340"/>
+      <c r="T11" s="340"/>
+      <c r="U11" s="340"/>
+      <c r="V11" s="340"/>
+      <c r="W11" s="340"/>
+      <c r="X11" s="340"/>
+      <c r="Y11" s="340"/>
+      <c r="Z11" s="340"/>
+      <c r="AA11" s="340"/>
+      <c r="AB11" s="340"/>
+      <c r="AC11" s="340"/>
+      <c r="AD11" s="340"/>
+      <c r="AE11" s="340"/>
+      <c r="AF11" s="340"/>
+      <c r="AG11" s="340"/>
+      <c r="AH11" s="339"/>
+      <c r="AI11" s="339"/>
+      <c r="AJ11" s="349"/>
+      <c r="AK11" s="350"/>
+      <c r="AL11" s="350"/>
+      <c r="AM11" s="350"/>
     </row>
     <row r="12" spans="1:39" ht="15" customHeight="1">
       <c r="A12" s="95"/>
       <c r="B12" s="109"/>
       <c r="C12" s="110"/>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333"/>
-      <c r="F12" s="333"/>
-      <c r="G12" s="333"/>
-      <c r="H12" s="333"/>
-      <c r="I12" s="333"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
-      <c r="P12" s="333"/>
-      <c r="Q12" s="333"/>
-      <c r="R12" s="333"/>
-      <c r="S12" s="333"/>
-      <c r="T12" s="333"/>
-      <c r="U12" s="333"/>
-      <c r="V12" s="333"/>
-      <c r="W12" s="333"/>
-      <c r="X12" s="333"/>
-      <c r="Y12" s="333"/>
-      <c r="Z12" s="333"/>
-      <c r="AA12" s="333"/>
-      <c r="AB12" s="333"/>
-      <c r="AC12" s="333"/>
-      <c r="AD12" s="333"/>
-      <c r="AE12" s="333"/>
-      <c r="AF12" s="333"/>
-      <c r="AG12" s="333"/>
-      <c r="AH12" s="333"/>
-      <c r="AI12" s="333"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="341"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="341"/>
+      <c r="I12" s="341"/>
+      <c r="J12" s="341"/>
+      <c r="K12" s="341"/>
+      <c r="L12" s="341"/>
+      <c r="M12" s="341"/>
+      <c r="N12" s="341"/>
+      <c r="O12" s="341"/>
+      <c r="P12" s="341"/>
+      <c r="Q12" s="341"/>
+      <c r="R12" s="341"/>
+      <c r="S12" s="341"/>
+      <c r="T12" s="341"/>
+      <c r="U12" s="341"/>
+      <c r="V12" s="341"/>
+      <c r="W12" s="341"/>
+      <c r="X12" s="341"/>
+      <c r="Y12" s="341"/>
+      <c r="Z12" s="341"/>
+      <c r="AA12" s="341"/>
+      <c r="AB12" s="341"/>
+      <c r="AC12" s="341"/>
+      <c r="AD12" s="341"/>
+      <c r="AE12" s="341"/>
+      <c r="AF12" s="341"/>
+      <c r="AG12" s="341"/>
+      <c r="AH12" s="341"/>
+      <c r="AI12" s="341"/>
+      <c r="AJ12" s="335"/>
+      <c r="AK12" s="336"/>
+      <c r="AL12" s="336"/>
+      <c r="AM12" s="336"/>
     </row>
     <row r="13" spans="1:39" ht="15" customHeight="1">
       <c r="A13" s="109"/>
       <c r="B13" s="109"/>
       <c r="C13" s="110"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="329"/>
-      <c r="G13" s="330"/>
-      <c r="H13" s="329"/>
-      <c r="I13" s="330"/>
-      <c r="J13" s="329"/>
-      <c r="K13" s="330"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="330"/>
-      <c r="N13" s="329"/>
-      <c r="O13" s="330"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="330"/>
-      <c r="R13" s="329"/>
-      <c r="S13" s="330"/>
-      <c r="T13" s="329"/>
-      <c r="U13" s="330"/>
-      <c r="V13" s="329"/>
-      <c r="W13" s="330"/>
-      <c r="X13" s="329"/>
-      <c r="Y13" s="330"/>
-      <c r="Z13" s="329"/>
-      <c r="AA13" s="330"/>
-      <c r="AB13" s="329"/>
-      <c r="AC13" s="330"/>
-      <c r="AD13" s="329"/>
-      <c r="AE13" s="330"/>
-      <c r="AF13" s="329"/>
-      <c r="AG13" s="330"/>
-      <c r="AH13" s="334"/>
-      <c r="AI13" s="335"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
+      <c r="D13" s="337"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="337"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="338"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="338"/>
+      <c r="L13" s="337"/>
+      <c r="M13" s="338"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="338"/>
+      <c r="P13" s="337"/>
+      <c r="Q13" s="338"/>
+      <c r="R13" s="337"/>
+      <c r="S13" s="338"/>
+      <c r="T13" s="337"/>
+      <c r="U13" s="338"/>
+      <c r="V13" s="337"/>
+      <c r="W13" s="338"/>
+      <c r="X13" s="337"/>
+      <c r="Y13" s="338"/>
+      <c r="Z13" s="337"/>
+      <c r="AA13" s="338"/>
+      <c r="AB13" s="337"/>
+      <c r="AC13" s="338"/>
+      <c r="AD13" s="337"/>
+      <c r="AE13" s="338"/>
+      <c r="AF13" s="337"/>
+      <c r="AG13" s="338"/>
+      <c r="AH13" s="342"/>
+      <c r="AI13" s="343"/>
+      <c r="AJ13" s="335"/>
+      <c r="AK13" s="336"/>
+      <c r="AL13" s="336"/>
+      <c r="AM13" s="336"/>
     </row>
     <row r="14" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="315"/>
+      <c r="A14" s="319"/>
       <c r="B14" s="195"/>
       <c r="C14" s="195"/>
       <c r="D14" s="195"/>
@@ -59224,27 +59301,27 @@
       <c r="AM14" s="52"/>
     </row>
     <row r="15" spans="1:39" ht="15" customHeight="1">
-      <c r="A15" s="349"/>
+      <c r="A15" s="355"/>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="350"/>
-      <c r="G15" s="350"/>
-      <c r="H15" s="350"/>
-      <c r="I15" s="350"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="350"/>
-      <c r="L15" s="351"/>
-      <c r="M15" s="351"/>
-      <c r="N15" s="351"/>
-      <c r="O15" s="351"/>
-      <c r="P15" s="349"/>
-      <c r="Q15" s="350"/>
-      <c r="R15" s="351"/>
-      <c r="S15" s="351"/>
-      <c r="T15" s="351"/>
-      <c r="U15" s="351"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="356"/>
+      <c r="I15" s="356"/>
+      <c r="J15" s="355"/>
+      <c r="K15" s="356"/>
+      <c r="L15" s="357"/>
+      <c r="M15" s="357"/>
+      <c r="N15" s="357"/>
+      <c r="O15" s="357"/>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="356"/>
+      <c r="R15" s="357"/>
+      <c r="S15" s="357"/>
+      <c r="T15" s="357"/>
+      <c r="U15" s="357"/>
       <c r="V15" s="53"/>
       <c r="W15" s="54"/>
       <c r="X15" s="55"/>
@@ -59265,8 +59342,8 @@
       <c r="AM15" s="50"/>
     </row>
     <row r="16" spans="1:39" ht="15" customHeight="1">
-      <c r="A16" s="315"/>
-      <c r="B16" s="316"/>
+      <c r="A16" s="319"/>
+      <c r="B16" s="320"/>
       <c r="C16" s="49"/>
       <c r="D16" s="181"/>
       <c r="E16" s="181"/>
@@ -59306,8 +59383,8 @@
       <c r="AM16" s="145"/>
     </row>
     <row r="17" spans="1:39" ht="15" customHeight="1">
-      <c r="A17" s="317"/>
-      <c r="B17" s="318"/>
+      <c r="A17" s="321"/>
+      <c r="B17" s="322"/>
       <c r="C17" s="47"/>
       <c r="D17" s="177"/>
       <c r="E17" s="177"/>
@@ -59347,212 +59424,212 @@
       <c r="AM17" s="166"/>
     </row>
     <row r="18" spans="1:39" ht="15" customHeight="1">
-      <c r="A18" s="315"/>
-      <c r="B18" s="316"/>
+      <c r="A18" s="319"/>
+      <c r="B18" s="320"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="338"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="338"/>
-      <c r="G18" s="339"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="339"/>
-      <c r="J18" s="336"/>
-      <c r="K18" s="337"/>
-      <c r="L18" s="338"/>
-      <c r="M18" s="339"/>
-      <c r="N18" s="336"/>
-      <c r="O18" s="337"/>
-      <c r="P18" s="336"/>
-      <c r="Q18" s="337"/>
-      <c r="R18" s="336"/>
-      <c r="S18" s="337"/>
-      <c r="T18" s="336"/>
-      <c r="U18" s="337"/>
-      <c r="V18" s="336"/>
-      <c r="W18" s="337"/>
-      <c r="X18" s="336"/>
-      <c r="Y18" s="337"/>
-      <c r="Z18" s="336"/>
-      <c r="AA18" s="337"/>
-      <c r="AB18" s="336"/>
-      <c r="AC18" s="337"/>
-      <c r="AD18" s="336"/>
-      <c r="AE18" s="337"/>
-      <c r="AF18" s="336"/>
-      <c r="AG18" s="337"/>
-      <c r="AH18" s="338"/>
-      <c r="AI18" s="339"/>
+      <c r="D18" s="346"/>
+      <c r="E18" s="347"/>
+      <c r="F18" s="346"/>
+      <c r="G18" s="347"/>
+      <c r="H18" s="346"/>
+      <c r="I18" s="347"/>
+      <c r="J18" s="344"/>
+      <c r="K18" s="345"/>
+      <c r="L18" s="346"/>
+      <c r="M18" s="347"/>
+      <c r="N18" s="344"/>
+      <c r="O18" s="345"/>
+      <c r="P18" s="344"/>
+      <c r="Q18" s="345"/>
+      <c r="R18" s="344"/>
+      <c r="S18" s="345"/>
+      <c r="T18" s="344"/>
+      <c r="U18" s="345"/>
+      <c r="V18" s="344"/>
+      <c r="W18" s="345"/>
+      <c r="X18" s="344"/>
+      <c r="Y18" s="345"/>
+      <c r="Z18" s="344"/>
+      <c r="AA18" s="345"/>
+      <c r="AB18" s="344"/>
+      <c r="AC18" s="345"/>
+      <c r="AD18" s="344"/>
+      <c r="AE18" s="345"/>
+      <c r="AF18" s="344"/>
+      <c r="AG18" s="345"/>
+      <c r="AH18" s="346"/>
+      <c r="AI18" s="347"/>
       <c r="AJ18" s="144"/>
       <c r="AK18" s="145"/>
       <c r="AL18" s="145"/>
       <c r="AM18" s="145"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1">
-      <c r="A19" s="340"/>
+      <c r="A19" s="323"/>
       <c r="B19" s="195"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="331"/>
-      <c r="H19" s="331"/>
-      <c r="I19" s="331"/>
-      <c r="J19" s="331"/>
-      <c r="K19" s="331"/>
-      <c r="L19" s="331"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="332"/>
-      <c r="O19" s="332"/>
-      <c r="P19" s="332"/>
-      <c r="Q19" s="332"/>
-      <c r="R19" s="332"/>
-      <c r="S19" s="332"/>
-      <c r="T19" s="332"/>
-      <c r="U19" s="332"/>
-      <c r="V19" s="332"/>
-      <c r="W19" s="332"/>
-      <c r="X19" s="332"/>
-      <c r="Y19" s="332"/>
-      <c r="Z19" s="332"/>
-      <c r="AA19" s="332"/>
-      <c r="AB19" s="332"/>
-      <c r="AC19" s="332"/>
-      <c r="AD19" s="332"/>
-      <c r="AE19" s="332"/>
-      <c r="AF19" s="332"/>
-      <c r="AG19" s="332"/>
-      <c r="AH19" s="331"/>
-      <c r="AI19" s="331"/>
-      <c r="AJ19" s="342"/>
-      <c r="AK19" s="343"/>
-      <c r="AL19" s="343"/>
-      <c r="AM19" s="343"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="340"/>
+      <c r="O19" s="340"/>
+      <c r="P19" s="340"/>
+      <c r="Q19" s="340"/>
+      <c r="R19" s="340"/>
+      <c r="S19" s="340"/>
+      <c r="T19" s="340"/>
+      <c r="U19" s="340"/>
+      <c r="V19" s="340"/>
+      <c r="W19" s="340"/>
+      <c r="X19" s="340"/>
+      <c r="Y19" s="340"/>
+      <c r="Z19" s="340"/>
+      <c r="AA19" s="340"/>
+      <c r="AB19" s="340"/>
+      <c r="AC19" s="340"/>
+      <c r="AD19" s="340"/>
+      <c r="AE19" s="340"/>
+      <c r="AF19" s="340"/>
+      <c r="AG19" s="340"/>
+      <c r="AH19" s="339"/>
+      <c r="AI19" s="339"/>
+      <c r="AJ19" s="349"/>
+      <c r="AK19" s="350"/>
+      <c r="AL19" s="350"/>
+      <c r="AM19" s="350"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1">
       <c r="A20" s="95"/>
       <c r="B20" s="109"/>
       <c r="C20" s="110"/>
-      <c r="D20" s="333"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="333"/>
-      <c r="G20" s="333"/>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="333"/>
-      <c r="K20" s="333"/>
-      <c r="L20" s="333"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="333"/>
-      <c r="R20" s="333"/>
-      <c r="S20" s="333"/>
-      <c r="T20" s="333"/>
-      <c r="U20" s="333"/>
-      <c r="V20" s="333"/>
-      <c r="W20" s="333"/>
-      <c r="X20" s="333"/>
-      <c r="Y20" s="333"/>
-      <c r="Z20" s="333"/>
-      <c r="AA20" s="333"/>
-      <c r="AB20" s="333"/>
-      <c r="AC20" s="333"/>
-      <c r="AD20" s="333"/>
-      <c r="AE20" s="333"/>
-      <c r="AF20" s="333"/>
-      <c r="AG20" s="333"/>
-      <c r="AH20" s="333"/>
-      <c r="AI20" s="333"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
+      <c r="D20" s="341"/>
+      <c r="E20" s="341"/>
+      <c r="F20" s="341"/>
+      <c r="G20" s="341"/>
+      <c r="H20" s="341"/>
+      <c r="I20" s="341"/>
+      <c r="J20" s="341"/>
+      <c r="K20" s="341"/>
+      <c r="L20" s="341"/>
+      <c r="M20" s="341"/>
+      <c r="N20" s="341"/>
+      <c r="O20" s="341"/>
+      <c r="P20" s="341"/>
+      <c r="Q20" s="341"/>
+      <c r="R20" s="341"/>
+      <c r="S20" s="341"/>
+      <c r="T20" s="341"/>
+      <c r="U20" s="341"/>
+      <c r="V20" s="341"/>
+      <c r="W20" s="341"/>
+      <c r="X20" s="341"/>
+      <c r="Y20" s="341"/>
+      <c r="Z20" s="341"/>
+      <c r="AA20" s="341"/>
+      <c r="AB20" s="341"/>
+      <c r="AC20" s="341"/>
+      <c r="AD20" s="341"/>
+      <c r="AE20" s="341"/>
+      <c r="AF20" s="341"/>
+      <c r="AG20" s="341"/>
+      <c r="AH20" s="341"/>
+      <c r="AI20" s="341"/>
+      <c r="AJ20" s="335"/>
+      <c r="AK20" s="336"/>
+      <c r="AL20" s="336"/>
+      <c r="AM20" s="336"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1">
       <c r="A21" s="109"/>
       <c r="B21" s="109"/>
       <c r="C21" s="110"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="329"/>
-      <c r="K21" s="330"/>
-      <c r="L21" s="329"/>
-      <c r="M21" s="330"/>
-      <c r="N21" s="329"/>
-      <c r="O21" s="330"/>
-      <c r="P21" s="329"/>
-      <c r="Q21" s="330"/>
-      <c r="R21" s="329"/>
-      <c r="S21" s="330"/>
-      <c r="T21" s="329"/>
-      <c r="U21" s="330"/>
-      <c r="V21" s="329"/>
-      <c r="W21" s="330"/>
-      <c r="X21" s="329"/>
-      <c r="Y21" s="330"/>
-      <c r="Z21" s="329"/>
-      <c r="AA21" s="330"/>
-      <c r="AB21" s="329"/>
-      <c r="AC21" s="330"/>
-      <c r="AD21" s="329"/>
-      <c r="AE21" s="330"/>
-      <c r="AF21" s="329"/>
-      <c r="AG21" s="330"/>
-      <c r="AH21" s="334"/>
-      <c r="AI21" s="335"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="106"/>
+      <c r="D21" s="337"/>
+      <c r="E21" s="338"/>
+      <c r="F21" s="337"/>
+      <c r="G21" s="338"/>
+      <c r="H21" s="337"/>
+      <c r="I21" s="338"/>
+      <c r="J21" s="337"/>
+      <c r="K21" s="338"/>
+      <c r="L21" s="337"/>
+      <c r="M21" s="338"/>
+      <c r="N21" s="337"/>
+      <c r="O21" s="338"/>
+      <c r="P21" s="337"/>
+      <c r="Q21" s="338"/>
+      <c r="R21" s="337"/>
+      <c r="S21" s="338"/>
+      <c r="T21" s="337"/>
+      <c r="U21" s="338"/>
+      <c r="V21" s="337"/>
+      <c r="W21" s="338"/>
+      <c r="X21" s="337"/>
+      <c r="Y21" s="338"/>
+      <c r="Z21" s="337"/>
+      <c r="AA21" s="338"/>
+      <c r="AB21" s="337"/>
+      <c r="AC21" s="338"/>
+      <c r="AD21" s="337"/>
+      <c r="AE21" s="338"/>
+      <c r="AF21" s="337"/>
+      <c r="AG21" s="338"/>
+      <c r="AH21" s="342"/>
+      <c r="AI21" s="343"/>
+      <c r="AJ21" s="335"/>
+      <c r="AK21" s="336"/>
+      <c r="AL21" s="336"/>
+      <c r="AM21" s="336"/>
     </row>
     <row r="22" spans="1:39" ht="15" customHeight="1">
-      <c r="A22" s="340"/>
-      <c r="B22" s="340"/>
-      <c r="C22" s="348"/>
-      <c r="D22" s="342"/>
-      <c r="E22" s="346"/>
-      <c r="F22" s="342"/>
-      <c r="G22" s="346"/>
-      <c r="H22" s="342"/>
-      <c r="I22" s="346"/>
-      <c r="J22" s="342"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="342"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="342"/>
-      <c r="O22" s="346"/>
-      <c r="P22" s="344"/>
-      <c r="Q22" s="345"/>
-      <c r="R22" s="344"/>
-      <c r="S22" s="345"/>
-      <c r="T22" s="344"/>
-      <c r="U22" s="345"/>
-      <c r="V22" s="344"/>
-      <c r="W22" s="345"/>
-      <c r="X22" s="344"/>
-      <c r="Y22" s="345"/>
-      <c r="Z22" s="344"/>
-      <c r="AA22" s="345"/>
-      <c r="AB22" s="344"/>
-      <c r="AC22" s="345"/>
-      <c r="AD22" s="344"/>
-      <c r="AE22" s="345"/>
-      <c r="AF22" s="344"/>
-      <c r="AG22" s="345"/>
-      <c r="AH22" s="342"/>
-      <c r="AI22" s="346"/>
-      <c r="AJ22" s="342"/>
-      <c r="AK22" s="347"/>
-      <c r="AL22" s="347"/>
-      <c r="AM22" s="347"/>
+      <c r="A22" s="323"/>
+      <c r="B22" s="323"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="353"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="349"/>
+      <c r="I22" s="353"/>
+      <c r="J22" s="349"/>
+      <c r="K22" s="353"/>
+      <c r="L22" s="349"/>
+      <c r="M22" s="353"/>
+      <c r="N22" s="349"/>
+      <c r="O22" s="353"/>
+      <c r="P22" s="351"/>
+      <c r="Q22" s="352"/>
+      <c r="R22" s="351"/>
+      <c r="S22" s="352"/>
+      <c r="T22" s="351"/>
+      <c r="U22" s="352"/>
+      <c r="V22" s="351"/>
+      <c r="W22" s="352"/>
+      <c r="X22" s="351"/>
+      <c r="Y22" s="352"/>
+      <c r="Z22" s="351"/>
+      <c r="AA22" s="352"/>
+      <c r="AB22" s="351"/>
+      <c r="AC22" s="352"/>
+      <c r="AD22" s="351"/>
+      <c r="AE22" s="352"/>
+      <c r="AF22" s="351"/>
+      <c r="AG22" s="352"/>
+      <c r="AH22" s="349"/>
+      <c r="AI22" s="353"/>
+      <c r="AJ22" s="349"/>
+      <c r="AK22" s="354"/>
+      <c r="AL22" s="354"/>
+      <c r="AM22" s="354"/>
     </row>
     <row r="23" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="315"/>
+      <c r="A23" s="319"/>
       <c r="B23" s="195"/>
       <c r="C23" s="195"/>
       <c r="D23" s="195"/>
@@ -59634,8 +59711,8 @@
       <c r="AM24" s="44"/>
     </row>
     <row r="25" spans="1:39" ht="15" customHeight="1">
-      <c r="A25" s="315"/>
-      <c r="B25" s="316"/>
+      <c r="A25" s="319"/>
+      <c r="B25" s="320"/>
       <c r="C25" s="49"/>
       <c r="D25" s="181"/>
       <c r="E25" s="181"/>
@@ -59675,8 +59752,8 @@
       <c r="AM25" s="145"/>
     </row>
     <row r="26" spans="1:39" ht="15" customHeight="1">
-      <c r="A26" s="317"/>
-      <c r="B26" s="318"/>
+      <c r="A26" s="321"/>
+      <c r="B26" s="322"/>
       <c r="C26" s="47"/>
       <c r="D26" s="177"/>
       <c r="E26" s="177"/>
@@ -59716,414 +59793,414 @@
       <c r="AM26" s="166"/>
     </row>
     <row r="27" spans="1:39" ht="15" customHeight="1">
-      <c r="A27" s="315"/>
-      <c r="B27" s="316"/>
+      <c r="A27" s="319"/>
+      <c r="B27" s="320"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="338"/>
-      <c r="E27" s="339"/>
-      <c r="F27" s="338"/>
-      <c r="G27" s="339"/>
-      <c r="H27" s="338"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="337"/>
-      <c r="L27" s="338"/>
-      <c r="M27" s="339"/>
-      <c r="N27" s="336"/>
-      <c r="O27" s="337"/>
-      <c r="P27" s="336"/>
-      <c r="Q27" s="337"/>
-      <c r="R27" s="336"/>
-      <c r="S27" s="337"/>
-      <c r="T27" s="336"/>
-      <c r="U27" s="337"/>
-      <c r="V27" s="336"/>
-      <c r="W27" s="337"/>
-      <c r="X27" s="336"/>
-      <c r="Y27" s="337"/>
-      <c r="Z27" s="336"/>
-      <c r="AA27" s="337"/>
-      <c r="AB27" s="336"/>
-      <c r="AC27" s="337"/>
-      <c r="AD27" s="336"/>
-      <c r="AE27" s="337"/>
-      <c r="AF27" s="336"/>
-      <c r="AG27" s="337"/>
-      <c r="AH27" s="338"/>
-      <c r="AI27" s="339"/>
+      <c r="D27" s="346"/>
+      <c r="E27" s="347"/>
+      <c r="F27" s="346"/>
+      <c r="G27" s="347"/>
+      <c r="H27" s="346"/>
+      <c r="I27" s="347"/>
+      <c r="J27" s="344"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="346"/>
+      <c r="M27" s="347"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="345"/>
+      <c r="P27" s="344"/>
+      <c r="Q27" s="345"/>
+      <c r="R27" s="344"/>
+      <c r="S27" s="345"/>
+      <c r="T27" s="344"/>
+      <c r="U27" s="345"/>
+      <c r="V27" s="344"/>
+      <c r="W27" s="345"/>
+      <c r="X27" s="344"/>
+      <c r="Y27" s="345"/>
+      <c r="Z27" s="344"/>
+      <c r="AA27" s="345"/>
+      <c r="AB27" s="344"/>
+      <c r="AC27" s="345"/>
+      <c r="AD27" s="344"/>
+      <c r="AE27" s="345"/>
+      <c r="AF27" s="344"/>
+      <c r="AG27" s="345"/>
+      <c r="AH27" s="346"/>
+      <c r="AI27" s="347"/>
       <c r="AJ27" s="144"/>
       <c r="AK27" s="145"/>
       <c r="AL27" s="145"/>
       <c r="AM27" s="145"/>
     </row>
     <row r="28" spans="1:39" ht="15" customHeight="1">
-      <c r="A28" s="340"/>
+      <c r="A28" s="323"/>
       <c r="B28" s="195"/>
-      <c r="C28" s="341"/>
-      <c r="D28" s="331"/>
-      <c r="E28" s="331"/>
-      <c r="F28" s="331"/>
-      <c r="G28" s="331"/>
-      <c r="H28" s="331"/>
-      <c r="I28" s="331"/>
-      <c r="J28" s="331"/>
-      <c r="K28" s="331"/>
-      <c r="L28" s="331"/>
-      <c r="M28" s="331"/>
-      <c r="N28" s="331"/>
-      <c r="O28" s="331"/>
-      <c r="P28" s="332"/>
-      <c r="Q28" s="332"/>
-      <c r="R28" s="332"/>
-      <c r="S28" s="332"/>
-      <c r="T28" s="332"/>
-      <c r="U28" s="332"/>
-      <c r="V28" s="332"/>
-      <c r="W28" s="332"/>
-      <c r="X28" s="332"/>
-      <c r="Y28" s="332"/>
-      <c r="Z28" s="332"/>
-      <c r="AA28" s="332"/>
-      <c r="AB28" s="332"/>
-      <c r="AC28" s="332"/>
-      <c r="AD28" s="332"/>
-      <c r="AE28" s="332"/>
-      <c r="AF28" s="332"/>
-      <c r="AG28" s="332"/>
-      <c r="AH28" s="331"/>
-      <c r="AI28" s="331"/>
-      <c r="AJ28" s="342"/>
-      <c r="AK28" s="343"/>
-      <c r="AL28" s="343"/>
-      <c r="AM28" s="343"/>
+      <c r="C28" s="348"/>
+      <c r="D28" s="339"/>
+      <c r="E28" s="339"/>
+      <c r="F28" s="339"/>
+      <c r="G28" s="339"/>
+      <c r="H28" s="339"/>
+      <c r="I28" s="339"/>
+      <c r="J28" s="339"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="339"/>
+      <c r="N28" s="339"/>
+      <c r="O28" s="339"/>
+      <c r="P28" s="340"/>
+      <c r="Q28" s="340"/>
+      <c r="R28" s="340"/>
+      <c r="S28" s="340"/>
+      <c r="T28" s="340"/>
+      <c r="U28" s="340"/>
+      <c r="V28" s="340"/>
+      <c r="W28" s="340"/>
+      <c r="X28" s="340"/>
+      <c r="Y28" s="340"/>
+      <c r="Z28" s="340"/>
+      <c r="AA28" s="340"/>
+      <c r="AB28" s="340"/>
+      <c r="AC28" s="340"/>
+      <c r="AD28" s="340"/>
+      <c r="AE28" s="340"/>
+      <c r="AF28" s="340"/>
+      <c r="AG28" s="340"/>
+      <c r="AH28" s="339"/>
+      <c r="AI28" s="339"/>
+      <c r="AJ28" s="349"/>
+      <c r="AK28" s="350"/>
+      <c r="AL28" s="350"/>
+      <c r="AM28" s="350"/>
     </row>
     <row r="29" spans="1:39" ht="15" customHeight="1">
       <c r="A29" s="95"/>
       <c r="B29" s="109"/>
       <c r="C29" s="110"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="333"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="333"/>
-      <c r="J29" s="333"/>
-      <c r="K29" s="333"/>
-      <c r="L29" s="333"/>
-      <c r="M29" s="333"/>
-      <c r="N29" s="333"/>
-      <c r="O29" s="333"/>
-      <c r="P29" s="333"/>
-      <c r="Q29" s="333"/>
-      <c r="R29" s="333"/>
-      <c r="S29" s="333"/>
-      <c r="T29" s="333"/>
-      <c r="U29" s="333"/>
-      <c r="V29" s="333"/>
-      <c r="W29" s="333"/>
-      <c r="X29" s="333"/>
-      <c r="Y29" s="333"/>
-      <c r="Z29" s="333"/>
-      <c r="AA29" s="333"/>
-      <c r="AB29" s="333"/>
-      <c r="AC29" s="333"/>
-      <c r="AD29" s="333"/>
-      <c r="AE29" s="333"/>
-      <c r="AF29" s="333"/>
-      <c r="AG29" s="333"/>
-      <c r="AH29" s="333"/>
-      <c r="AI29" s="333"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="106"/>
+      <c r="D29" s="341"/>
+      <c r="E29" s="341"/>
+      <c r="F29" s="341"/>
+      <c r="G29" s="341"/>
+      <c r="H29" s="341"/>
+      <c r="I29" s="341"/>
+      <c r="J29" s="341"/>
+      <c r="K29" s="341"/>
+      <c r="L29" s="341"/>
+      <c r="M29" s="341"/>
+      <c r="N29" s="341"/>
+      <c r="O29" s="341"/>
+      <c r="P29" s="341"/>
+      <c r="Q29" s="341"/>
+      <c r="R29" s="341"/>
+      <c r="S29" s="341"/>
+      <c r="T29" s="341"/>
+      <c r="U29" s="341"/>
+      <c r="V29" s="341"/>
+      <c r="W29" s="341"/>
+      <c r="X29" s="341"/>
+      <c r="Y29" s="341"/>
+      <c r="Z29" s="341"/>
+      <c r="AA29" s="341"/>
+      <c r="AB29" s="341"/>
+      <c r="AC29" s="341"/>
+      <c r="AD29" s="341"/>
+      <c r="AE29" s="341"/>
+      <c r="AF29" s="341"/>
+      <c r="AG29" s="341"/>
+      <c r="AH29" s="341"/>
+      <c r="AI29" s="341"/>
+      <c r="AJ29" s="335"/>
+      <c r="AK29" s="336"/>
+      <c r="AL29" s="336"/>
+      <c r="AM29" s="336"/>
     </row>
     <row r="30" spans="1:39" ht="15" customHeight="1">
       <c r="A30" s="109"/>
       <c r="B30" s="109"/>
       <c r="C30" s="110"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="329"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="329"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="329"/>
-      <c r="K30" s="330"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="330"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="330"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="330"/>
-      <c r="R30" s="329"/>
-      <c r="S30" s="330"/>
-      <c r="T30" s="329"/>
-      <c r="U30" s="330"/>
-      <c r="V30" s="329"/>
-      <c r="W30" s="330"/>
-      <c r="X30" s="329"/>
-      <c r="Y30" s="330"/>
-      <c r="Z30" s="329"/>
-      <c r="AA30" s="330"/>
-      <c r="AB30" s="329"/>
-      <c r="AC30" s="330"/>
-      <c r="AD30" s="329"/>
-      <c r="AE30" s="330"/>
-      <c r="AF30" s="329"/>
-      <c r="AG30" s="330"/>
-      <c r="AH30" s="334"/>
-      <c r="AI30" s="335"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="106"/>
-      <c r="AL30" s="106"/>
-      <c r="AM30" s="106"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="337"/>
+      <c r="G30" s="338"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="338"/>
+      <c r="J30" s="337"/>
+      <c r="K30" s="338"/>
+      <c r="L30" s="337"/>
+      <c r="M30" s="338"/>
+      <c r="N30" s="337"/>
+      <c r="O30" s="338"/>
+      <c r="P30" s="337"/>
+      <c r="Q30" s="338"/>
+      <c r="R30" s="337"/>
+      <c r="S30" s="338"/>
+      <c r="T30" s="337"/>
+      <c r="U30" s="338"/>
+      <c r="V30" s="337"/>
+      <c r="W30" s="338"/>
+      <c r="X30" s="337"/>
+      <c r="Y30" s="338"/>
+      <c r="Z30" s="337"/>
+      <c r="AA30" s="338"/>
+      <c r="AB30" s="337"/>
+      <c r="AC30" s="338"/>
+      <c r="AD30" s="337"/>
+      <c r="AE30" s="338"/>
+      <c r="AF30" s="337"/>
+      <c r="AG30" s="338"/>
+      <c r="AH30" s="342"/>
+      <c r="AI30" s="343"/>
+      <c r="AJ30" s="335"/>
+      <c r="AK30" s="336"/>
+      <c r="AL30" s="336"/>
+      <c r="AM30" s="336"/>
     </row>
     <row r="31" spans="1:39" ht="15" customHeight="1">
-      <c r="A31" s="321"/>
+      <c r="A31" s="327"/>
       <c r="B31" s="292"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="323"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="323"/>
-      <c r="J31" s="323"/>
-      <c r="K31" s="323"/>
-      <c r="L31" s="323"/>
-      <c r="M31" s="323"/>
-      <c r="N31" s="323"/>
-      <c r="O31" s="323"/>
-      <c r="P31" s="319"/>
-      <c r="Q31" s="320"/>
-      <c r="R31" s="319"/>
-      <c r="S31" s="320"/>
-      <c r="T31" s="319"/>
-      <c r="U31" s="320"/>
-      <c r="V31" s="319"/>
-      <c r="W31" s="320"/>
-      <c r="X31" s="319"/>
-      <c r="Y31" s="320"/>
-      <c r="Z31" s="319"/>
-      <c r="AA31" s="320"/>
-      <c r="AB31" s="319"/>
-      <c r="AC31" s="320"/>
-      <c r="AD31" s="319"/>
-      <c r="AE31" s="320"/>
-      <c r="AF31" s="319"/>
-      <c r="AG31" s="320"/>
-      <c r="AH31" s="323"/>
-      <c r="AI31" s="323"/>
-      <c r="AJ31" s="324"/>
-      <c r="AK31" s="325"/>
-      <c r="AL31" s="325"/>
-      <c r="AM31" s="325"/>
+      <c r="C31" s="328"/>
+      <c r="D31" s="329"/>
+      <c r="E31" s="329"/>
+      <c r="F31" s="329"/>
+      <c r="G31" s="329"/>
+      <c r="H31" s="329"/>
+      <c r="I31" s="329"/>
+      <c r="J31" s="329"/>
+      <c r="K31" s="329"/>
+      <c r="L31" s="329"/>
+      <c r="M31" s="329"/>
+      <c r="N31" s="329"/>
+      <c r="O31" s="329"/>
+      <c r="P31" s="325"/>
+      <c r="Q31" s="326"/>
+      <c r="R31" s="325"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="325"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="325"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="325"/>
+      <c r="Y31" s="326"/>
+      <c r="Z31" s="325"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="325"/>
+      <c r="AC31" s="326"/>
+      <c r="AD31" s="325"/>
+      <c r="AE31" s="326"/>
+      <c r="AF31" s="325"/>
+      <c r="AG31" s="326"/>
+      <c r="AH31" s="329"/>
+      <c r="AI31" s="329"/>
+      <c r="AJ31" s="330"/>
+      <c r="AK31" s="331"/>
+      <c r="AL31" s="331"/>
+      <c r="AM31" s="331"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1">
       <c r="A32" s="255"/>
       <c r="B32" s="241"/>
       <c r="C32" s="242"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="328"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="328"/>
-      <c r="H32" s="328"/>
-      <c r="I32" s="328"/>
-      <c r="J32" s="328"/>
-      <c r="K32" s="328"/>
-      <c r="L32" s="328"/>
-      <c r="M32" s="328"/>
-      <c r="N32" s="328"/>
-      <c r="O32" s="328"/>
-      <c r="P32" s="326"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="326"/>
-      <c r="S32" s="327"/>
-      <c r="T32" s="326"/>
-      <c r="U32" s="327"/>
-      <c r="V32" s="326"/>
-      <c r="W32" s="327"/>
-      <c r="X32" s="326"/>
-      <c r="Y32" s="327"/>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="327"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="327"/>
-      <c r="AD32" s="326"/>
-      <c r="AE32" s="327"/>
-      <c r="AF32" s="326"/>
-      <c r="AG32" s="327"/>
-      <c r="AH32" s="328"/>
-      <c r="AI32" s="328"/>
+      <c r="D32" s="334"/>
+      <c r="E32" s="334"/>
+      <c r="F32" s="334"/>
+      <c r="G32" s="334"/>
+      <c r="H32" s="334"/>
+      <c r="I32" s="334"/>
+      <c r="J32" s="334"/>
+      <c r="K32" s="334"/>
+      <c r="L32" s="334"/>
+      <c r="M32" s="334"/>
+      <c r="N32" s="334"/>
+      <c r="O32" s="334"/>
+      <c r="P32" s="332"/>
+      <c r="Q32" s="333"/>
+      <c r="R32" s="332"/>
+      <c r="S32" s="333"/>
+      <c r="T32" s="332"/>
+      <c r="U32" s="333"/>
+      <c r="V32" s="332"/>
+      <c r="W32" s="333"/>
+      <c r="X32" s="332"/>
+      <c r="Y32" s="333"/>
+      <c r="Z32" s="332"/>
+      <c r="AA32" s="333"/>
+      <c r="AB32" s="332"/>
+      <c r="AC32" s="333"/>
+      <c r="AD32" s="332"/>
+      <c r="AE32" s="333"/>
+      <c r="AF32" s="332"/>
+      <c r="AG32" s="333"/>
+      <c r="AH32" s="334"/>
+      <c r="AI32" s="334"/>
       <c r="AJ32" s="247"/>
       <c r="AK32" s="248"/>
       <c r="AL32" s="248"/>
       <c r="AM32" s="248"/>
     </row>
     <row r="33" spans="1:39" ht="15" customHeight="1">
-      <c r="A33" s="321"/>
+      <c r="A33" s="327"/>
       <c r="B33" s="292"/>
-      <c r="C33" s="322"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="323"/>
-      <c r="F33" s="323"/>
-      <c r="G33" s="323"/>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323"/>
-      <c r="J33" s="323"/>
-      <c r="K33" s="323"/>
-      <c r="L33" s="323"/>
-      <c r="M33" s="323"/>
-      <c r="N33" s="323"/>
-      <c r="O33" s="323"/>
-      <c r="P33" s="319"/>
-      <c r="Q33" s="320"/>
-      <c r="R33" s="319"/>
-      <c r="S33" s="320"/>
-      <c r="T33" s="319"/>
-      <c r="U33" s="320"/>
-      <c r="V33" s="319"/>
-      <c r="W33" s="320"/>
-      <c r="X33" s="319"/>
-      <c r="Y33" s="320"/>
-      <c r="Z33" s="319"/>
-      <c r="AA33" s="320"/>
-      <c r="AB33" s="319"/>
-      <c r="AC33" s="320"/>
-      <c r="AD33" s="319"/>
-      <c r="AE33" s="320"/>
-      <c r="AF33" s="319"/>
-      <c r="AG33" s="320"/>
-      <c r="AH33" s="323"/>
-      <c r="AI33" s="323"/>
-      <c r="AJ33" s="324"/>
-      <c r="AK33" s="325"/>
-      <c r="AL33" s="325"/>
-      <c r="AM33" s="325"/>
+      <c r="C33" s="328"/>
+      <c r="D33" s="329"/>
+      <c r="E33" s="329"/>
+      <c r="F33" s="329"/>
+      <c r="G33" s="329"/>
+      <c r="H33" s="329"/>
+      <c r="I33" s="329"/>
+      <c r="J33" s="329"/>
+      <c r="K33" s="329"/>
+      <c r="L33" s="329"/>
+      <c r="M33" s="329"/>
+      <c r="N33" s="329"/>
+      <c r="O33" s="329"/>
+      <c r="P33" s="325"/>
+      <c r="Q33" s="326"/>
+      <c r="R33" s="325"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="325"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="325"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="325"/>
+      <c r="Y33" s="326"/>
+      <c r="Z33" s="325"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="325"/>
+      <c r="AC33" s="326"/>
+      <c r="AD33" s="325"/>
+      <c r="AE33" s="326"/>
+      <c r="AF33" s="325"/>
+      <c r="AG33" s="326"/>
+      <c r="AH33" s="329"/>
+      <c r="AI33" s="329"/>
+      <c r="AJ33" s="330"/>
+      <c r="AK33" s="331"/>
+      <c r="AL33" s="331"/>
+      <c r="AM33" s="331"/>
     </row>
     <row r="34" spans="1:39" ht="15" customHeight="1">
       <c r="A34" s="255"/>
       <c r="B34" s="241"/>
       <c r="C34" s="242"/>
-      <c r="D34" s="328"/>
-      <c r="E34" s="328"/>
-      <c r="F34" s="328"/>
-      <c r="G34" s="328"/>
-      <c r="H34" s="328"/>
-      <c r="I34" s="328"/>
-      <c r="J34" s="328"/>
-      <c r="K34" s="328"/>
-      <c r="L34" s="328"/>
-      <c r="M34" s="328"/>
-      <c r="N34" s="328"/>
-      <c r="O34" s="328"/>
-      <c r="P34" s="326"/>
-      <c r="Q34" s="327"/>
-      <c r="R34" s="326"/>
-      <c r="S34" s="327"/>
-      <c r="T34" s="326"/>
-      <c r="U34" s="327"/>
-      <c r="V34" s="326"/>
-      <c r="W34" s="327"/>
-      <c r="X34" s="326"/>
-      <c r="Y34" s="327"/>
-      <c r="Z34" s="326"/>
-      <c r="AA34" s="327"/>
-      <c r="AB34" s="326"/>
-      <c r="AC34" s="327"/>
-      <c r="AD34" s="326"/>
-      <c r="AE34" s="327"/>
-      <c r="AF34" s="326"/>
-      <c r="AG34" s="327"/>
-      <c r="AH34" s="328"/>
-      <c r="AI34" s="328"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="334"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="334"/>
+      <c r="I34" s="334"/>
+      <c r="J34" s="334"/>
+      <c r="K34" s="334"/>
+      <c r="L34" s="334"/>
+      <c r="M34" s="334"/>
+      <c r="N34" s="334"/>
+      <c r="O34" s="334"/>
+      <c r="P34" s="332"/>
+      <c r="Q34" s="333"/>
+      <c r="R34" s="332"/>
+      <c r="S34" s="333"/>
+      <c r="T34" s="332"/>
+      <c r="U34" s="333"/>
+      <c r="V34" s="332"/>
+      <c r="W34" s="333"/>
+      <c r="X34" s="332"/>
+      <c r="Y34" s="333"/>
+      <c r="Z34" s="332"/>
+      <c r="AA34" s="333"/>
+      <c r="AB34" s="332"/>
+      <c r="AC34" s="333"/>
+      <c r="AD34" s="332"/>
+      <c r="AE34" s="333"/>
+      <c r="AF34" s="332"/>
+      <c r="AG34" s="333"/>
+      <c r="AH34" s="334"/>
+      <c r="AI34" s="334"/>
       <c r="AJ34" s="247"/>
       <c r="AK34" s="248"/>
       <c r="AL34" s="248"/>
       <c r="AM34" s="248"/>
     </row>
     <row r="35" spans="1:39" ht="15" customHeight="1">
-      <c r="A35" s="321"/>
+      <c r="A35" s="327"/>
       <c r="B35" s="292"/>
-      <c r="C35" s="322"/>
-      <c r="D35" s="323"/>
-      <c r="E35" s="323"/>
-      <c r="F35" s="323"/>
-      <c r="G35" s="323"/>
-      <c r="H35" s="323"/>
-      <c r="I35" s="323"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="323"/>
-      <c r="L35" s="323"/>
-      <c r="M35" s="323"/>
-      <c r="N35" s="323"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="319"/>
-      <c r="Q35" s="320"/>
-      <c r="R35" s="319"/>
-      <c r="S35" s="320"/>
-      <c r="T35" s="319"/>
-      <c r="U35" s="320"/>
-      <c r="V35" s="319"/>
-      <c r="W35" s="320"/>
-      <c r="X35" s="319"/>
-      <c r="Y35" s="320"/>
-      <c r="Z35" s="319"/>
-      <c r="AA35" s="320"/>
-      <c r="AB35" s="319"/>
-      <c r="AC35" s="320"/>
-      <c r="AD35" s="319"/>
-      <c r="AE35" s="320"/>
-      <c r="AF35" s="319"/>
-      <c r="AG35" s="320"/>
-      <c r="AH35" s="323"/>
-      <c r="AI35" s="323"/>
-      <c r="AJ35" s="324"/>
-      <c r="AK35" s="325"/>
-      <c r="AL35" s="325"/>
-      <c r="AM35" s="325"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="329"/>
+      <c r="E35" s="329"/>
+      <c r="F35" s="329"/>
+      <c r="G35" s="329"/>
+      <c r="H35" s="329"/>
+      <c r="I35" s="329"/>
+      <c r="J35" s="329"/>
+      <c r="K35" s="329"/>
+      <c r="L35" s="329"/>
+      <c r="M35" s="329"/>
+      <c r="N35" s="329"/>
+      <c r="O35" s="329"/>
+      <c r="P35" s="325"/>
+      <c r="Q35" s="326"/>
+      <c r="R35" s="325"/>
+      <c r="S35" s="326"/>
+      <c r="T35" s="325"/>
+      <c r="U35" s="326"/>
+      <c r="V35" s="325"/>
+      <c r="W35" s="326"/>
+      <c r="X35" s="325"/>
+      <c r="Y35" s="326"/>
+      <c r="Z35" s="325"/>
+      <c r="AA35" s="326"/>
+      <c r="AB35" s="325"/>
+      <c r="AC35" s="326"/>
+      <c r="AD35" s="325"/>
+      <c r="AE35" s="326"/>
+      <c r="AF35" s="325"/>
+      <c r="AG35" s="326"/>
+      <c r="AH35" s="329"/>
+      <c r="AI35" s="329"/>
+      <c r="AJ35" s="330"/>
+      <c r="AK35" s="331"/>
+      <c r="AL35" s="331"/>
+      <c r="AM35" s="331"/>
     </row>
     <row r="36" spans="1:39" ht="15" customHeight="1">
-      <c r="A36" s="321"/>
+      <c r="A36" s="327"/>
       <c r="B36" s="292"/>
-      <c r="C36" s="322"/>
-      <c r="D36" s="323"/>
-      <c r="E36" s="323"/>
-      <c r="F36" s="323"/>
-      <c r="G36" s="323"/>
-      <c r="H36" s="323"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="323"/>
-      <c r="K36" s="323"/>
-      <c r="L36" s="323"/>
-      <c r="M36" s="323"/>
-      <c r="N36" s="323"/>
-      <c r="O36" s="323"/>
-      <c r="P36" s="319"/>
-      <c r="Q36" s="320"/>
-      <c r="R36" s="319"/>
-      <c r="S36" s="320"/>
-      <c r="T36" s="319"/>
-      <c r="U36" s="320"/>
-      <c r="V36" s="319"/>
-      <c r="W36" s="320"/>
-      <c r="X36" s="319"/>
-      <c r="Y36" s="320"/>
-      <c r="Z36" s="319"/>
-      <c r="AA36" s="320"/>
-      <c r="AB36" s="319"/>
-      <c r="AC36" s="320"/>
-      <c r="AD36" s="319"/>
-      <c r="AE36" s="320"/>
-      <c r="AF36" s="319"/>
-      <c r="AG36" s="320"/>
-      <c r="AH36" s="323"/>
-      <c r="AI36" s="323"/>
-      <c r="AJ36" s="324"/>
-      <c r="AK36" s="325"/>
-      <c r="AL36" s="325"/>
-      <c r="AM36" s="325"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="329"/>
+      <c r="E36" s="329"/>
+      <c r="F36" s="329"/>
+      <c r="G36" s="329"/>
+      <c r="H36" s="329"/>
+      <c r="I36" s="329"/>
+      <c r="J36" s="329"/>
+      <c r="K36" s="329"/>
+      <c r="L36" s="329"/>
+      <c r="M36" s="329"/>
+      <c r="N36" s="329"/>
+      <c r="O36" s="329"/>
+      <c r="P36" s="325"/>
+      <c r="Q36" s="326"/>
+      <c r="R36" s="325"/>
+      <c r="S36" s="326"/>
+      <c r="T36" s="325"/>
+      <c r="U36" s="326"/>
+      <c r="V36" s="325"/>
+      <c r="W36" s="326"/>
+      <c r="X36" s="325"/>
+      <c r="Y36" s="326"/>
+      <c r="Z36" s="325"/>
+      <c r="AA36" s="326"/>
+      <c r="AB36" s="325"/>
+      <c r="AC36" s="326"/>
+      <c r="AD36" s="325"/>
+      <c r="AE36" s="326"/>
+      <c r="AF36" s="325"/>
+      <c r="AG36" s="326"/>
+      <c r="AH36" s="329"/>
+      <c r="AI36" s="329"/>
+      <c r="AJ36" s="330"/>
+      <c r="AK36" s="331"/>
+      <c r="AL36" s="331"/>
+      <c r="AM36" s="331"/>
     </row>
     <row r="37" spans="1:39" ht="15" customHeight="1">
       <c r="A37" s="255"/>
